--- a/BackTest/2019-10-11 BackTest STEEM.xlsx
+++ b/BackTest/2019-10-11 BackTest STEEM.xlsx
@@ -965,7 +965,9 @@
       <c r="J12" t="n">
         <v>20</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-5.263157894736842</v>
+      </c>
       <c r="L12" t="n">
         <v>215.5</v>
       </c>
@@ -1022,7 +1024,9 @@
       <c r="J13" t="n">
         <v>22</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>10</v>
+      </c>
       <c r="L13" t="n">
         <v>215.6</v>
       </c>
@@ -1077,7 +1081,9 @@
       <c r="J14" t="n">
         <v>25</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-14.28571428571428</v>
+      </c>
       <c r="L14" t="n">
         <v>215.5</v>
       </c>
@@ -1134,7 +1140,9 @@
       <c r="J15" t="n">
         <v>28</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-4.347826086956522</v>
+      </c>
       <c r="L15" t="n">
         <v>215.5</v>
       </c>
@@ -1189,7 +1197,9 @@
       <c r="J16" t="n">
         <v>29</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>10</v>
+      </c>
       <c r="L16" t="n">
         <v>215.3</v>
       </c>
@@ -1244,7 +1254,9 @@
       <c r="J17" t="n">
         <v>30</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-17.64705882352941</v>
+      </c>
       <c r="L17" t="n">
         <v>215.4</v>
       </c>
@@ -1299,7 +1311,9 @@
       <c r="J18" t="n">
         <v>32</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>28.57142857142857</v>
+      </c>
       <c r="L18" t="n">
         <v>215.3</v>
       </c>
@@ -1354,7 +1368,9 @@
       <c r="J19" t="n">
         <v>34</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>6.666666666666667</v>
+      </c>
       <c r="L19" t="n">
         <v>215.5</v>
       </c>
@@ -1411,7 +1427,9 @@
       <c r="J20" t="n">
         <v>36</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>12.5</v>
+      </c>
       <c r="L20" t="n">
         <v>215.8</v>
       </c>
@@ -1464,7 +1482,9 @@
       <c r="J21" t="n">
         <v>36</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>12.5</v>
+      </c>
       <c r="L21" t="n">
         <v>216</v>
       </c>
@@ -1523,7 +1543,9 @@
       <c r="J22" t="n">
         <v>37</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>6.666666666666667</v>
+      </c>
       <c r="L22" t="n">
         <v>216.3</v>
       </c>
@@ -1583,7 +1605,7 @@
         <v>38</v>
       </c>
       <c r="K23" t="n">
-        <v>8.108108108108109</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L23" t="n">
         <v>216.5</v>
@@ -1644,7 +1666,7 @@
         <v>39</v>
       </c>
       <c r="K24" t="n">
-        <v>13.51351351351351</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L24" t="n">
         <v>217.1</v>
@@ -1703,7 +1725,7 @@
         <v>39</v>
       </c>
       <c r="K25" t="n">
-        <v>8.571428571428571</v>
+        <v>40</v>
       </c>
       <c r="L25" t="n">
         <v>217.4</v>
@@ -1762,7 +1784,7 @@
         <v>39</v>
       </c>
       <c r="K26" t="n">
-        <v>5.88235294117647</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L26" t="n">
         <v>217.8</v>
@@ -1817,7 +1839,7 @@
         <v>41</v>
       </c>
       <c r="K27" t="n">
-        <v>25</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L27" t="n">
         <v>218.5</v>
@@ -1872,7 +1894,7 @@
         <v>41</v>
       </c>
       <c r="K28" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L28" t="n">
         <v>219</v>
@@ -1927,7 +1949,7 @@
         <v>41</v>
       </c>
       <c r="K29" t="n">
-        <v>39.1304347826087</v>
+        <v>100</v>
       </c>
       <c r="L29" t="n">
         <v>219.7</v>
@@ -1982,7 +2004,7 @@
         <v>41</v>
       </c>
       <c r="K30" t="n">
-        <v>36.36363636363637</v>
+        <v>100</v>
       </c>
       <c r="L30" t="n">
         <v>220.2</v>
@@ -2031,7 +2053,7 @@
         <v>42</v>
       </c>
       <c r="K31" t="n">
-        <v>36.36363636363637</v>
+        <v>100</v>
       </c>
       <c r="L31" t="n">
         <v>220.8</v>
@@ -2082,7 +2104,7 @@
         <v>43</v>
       </c>
       <c r="K32" t="n">
-        <v>30.43478260869566</v>
+        <v>60</v>
       </c>
       <c r="L32" t="n">
         <v>221.2</v>
@@ -2133,7 +2155,7 @@
         <v>43</v>
       </c>
       <c r="K33" t="n">
-        <v>23.80952380952381</v>
+        <v>50</v>
       </c>
       <c r="L33" t="n">
         <v>221.5</v>
@@ -2184,7 +2206,7 @@
         <v>43</v>
       </c>
       <c r="K34" t="n">
-        <v>44.44444444444444</v>
+        <v>50</v>
       </c>
       <c r="L34" t="n">
         <v>221.7</v>
@@ -2235,7 +2257,7 @@
         <v>44</v>
       </c>
       <c r="K35" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L35" t="n">
         <v>221.8</v>
@@ -2286,7 +2308,7 @@
         <v>47</v>
       </c>
       <c r="K36" t="n">
-        <v>11.11111111111111</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L36" t="n">
         <v>221.6</v>
@@ -2337,7 +2359,7 @@
         <v>49</v>
       </c>
       <c r="K37" t="n">
-        <v>26.31578947368421</v>
+        <v>-25</v>
       </c>
       <c r="L37" t="n">
         <v>221.4</v>
@@ -2388,7 +2410,7 @@
         <v>49</v>
       </c>
       <c r="K38" t="n">
-        <v>17.64705882352941</v>
+        <v>-25</v>
       </c>
       <c r="L38" t="n">
         <v>221.2</v>
@@ -2439,7 +2461,7 @@
         <v>51</v>
       </c>
       <c r="K39" t="n">
-        <v>17.64705882352941</v>
+        <v>-40</v>
       </c>
       <c r="L39" t="n">
         <v>220.8</v>
@@ -2490,7 +2512,7 @@
         <v>52</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="L40" t="n">
         <v>220.3</v>
@@ -2541,7 +2563,7 @@
         <v>52</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L41" t="n">
         <v>219.7</v>
@@ -2592,7 +2614,7 @@
         <v>53</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="L42" t="n">
         <v>219.3</v>
@@ -2643,7 +2665,7 @@
         <v>54</v>
       </c>
       <c r="K43" t="n">
-        <v>-12.5</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L43" t="n">
         <v>218.8</v>
@@ -2694,7 +2716,7 @@
         <v>57</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L44" t="n">
         <v>218.6</v>
@@ -2745,7 +2767,7 @@
         <v>57</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L45" t="n">
         <v>218.5</v>
@@ -2796,7 +2818,7 @@
         <v>60</v>
       </c>
       <c r="K46" t="n">
-        <v>-14.28571428571428</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L46" t="n">
         <v>218.4</v>
@@ -2847,7 +2869,7 @@
         <v>61</v>
       </c>
       <c r="K47" t="n">
-        <v>-20</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L47" t="n">
         <v>218.2</v>
@@ -2898,7 +2920,7 @@
         <v>64</v>
       </c>
       <c r="K48" t="n">
-        <v>-4.347826086956522</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L48" t="n">
         <v>218.3</v>
@@ -2949,7 +2971,7 @@
         <v>67</v>
       </c>
       <c r="K49" t="n">
-        <v>7.692307692307693</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L49" t="n">
         <v>218.9</v>
@@ -3000,7 +3022,7 @@
         <v>71</v>
       </c>
       <c r="K50" t="n">
-        <v>20</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L50" t="n">
         <v>220</v>
@@ -3051,7 +3073,7 @@
         <v>71</v>
       </c>
       <c r="K51" t="n">
-        <v>17.24137931034483</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L51" t="n">
         <v>221.1</v>
@@ -3102,7 +3124,7 @@
         <v>73</v>
       </c>
       <c r="K52" t="n">
-        <v>26.66666666666667</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="L52" t="n">
         <v>222.3</v>
@@ -3153,7 +3175,7 @@
         <v>78</v>
       </c>
       <c r="K53" t="n">
-        <v>37.14285714285715</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L53" t="n">
         <v>224.1</v>
@@ -3204,7 +3226,7 @@
         <v>78</v>
       </c>
       <c r="K54" t="n">
-        <v>37.14285714285715</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L54" t="n">
         <v>225.6</v>
@@ -3255,7 +3277,7 @@
         <v>79</v>
       </c>
       <c r="K55" t="n">
-        <v>37.14285714285715</v>
+        <v>89.47368421052632</v>
       </c>
       <c r="L55" t="n">
         <v>227</v>
@@ -3306,7 +3328,7 @@
         <v>83</v>
       </c>
       <c r="K56" t="n">
-        <v>33.33333333333333</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="L56" t="n">
         <v>228.3</v>
@@ -3357,7 +3379,7 @@
         <v>86</v>
       </c>
       <c r="K57" t="n">
-        <v>18.91891891891892</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L57" t="n">
         <v>229.2</v>
@@ -3408,7 +3430,7 @@
         <v>87</v>
       </c>
       <c r="K58" t="n">
-        <v>21.05263157894737</v>
+        <v>20</v>
       </c>
       <c r="L58" t="n">
         <v>229.9</v>
@@ -3459,7 +3481,7 @@
         <v>90</v>
       </c>
       <c r="K59" t="n">
-        <v>17.94871794871795</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L59" t="n">
         <v>230</v>
@@ -3510,7 +3532,7 @@
         <v>92</v>
       </c>
       <c r="K60" t="n">
-        <v>25</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L60" t="n">
         <v>229.9</v>
@@ -3561,7 +3583,7 @@
         <v>92</v>
       </c>
       <c r="K61" t="n">
-        <v>25</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L61" t="n">
         <v>229.8</v>
@@ -3612,7 +3634,7 @@
         <v>94</v>
       </c>
       <c r="K62" t="n">
-        <v>17.07317073170732</v>
+        <v>-62.5</v>
       </c>
       <c r="L62" t="n">
         <v>229.3</v>
@@ -3663,7 +3685,7 @@
         <v>94</v>
       </c>
       <c r="K63" t="n">
-        <v>20</v>
+        <v>-62.5</v>
       </c>
       <c r="L63" t="n">
         <v>228.3</v>
@@ -3714,7 +3736,7 @@
         <v>94</v>
       </c>
       <c r="K64" t="n">
-        <v>13.51351351351351</v>
+        <v>-60</v>
       </c>
       <c r="L64" t="n">
         <v>227.3</v>
@@ -3765,7 +3787,7 @@
         <v>96</v>
       </c>
       <c r="K65" t="n">
-        <v>17.94871794871795</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L65" t="n">
         <v>226.6</v>
@@ -3816,7 +3838,7 @@
         <v>99</v>
       </c>
       <c r="K66" t="n">
-        <v>33.33333333333333</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L66" t="n">
         <v>226.6</v>
@@ -3867,7 +3889,7 @@
         <v>99</v>
       </c>
       <c r="K67" t="n">
-        <v>31.57894736842105</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L67" t="n">
         <v>226.9</v>
@@ -3918,7 +3940,7 @@
         <v>101</v>
       </c>
       <c r="K68" t="n">
-        <v>18.91891891891892</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L68" t="n">
         <v>226.9</v>
@@ -3969,7 +3991,7 @@
         <v>102</v>
       </c>
       <c r="K69" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L69" t="n">
         <v>227.3</v>
@@ -4020,7 +4042,7 @@
         <v>103</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L70" t="n">
         <v>227.4</v>
@@ -4071,7 +4093,7 @@
         <v>104</v>
       </c>
       <c r="K71" t="n">
-        <v>3.03030303030303</v>
+        <v>40</v>
       </c>
       <c r="L71" t="n">
         <v>227.6</v>
@@ -4122,7 +4144,7 @@
         <v>104</v>
       </c>
       <c r="K72" t="n">
-        <v>-3.225806451612903</v>
+        <v>40</v>
       </c>
       <c r="L72" t="n">
         <v>228</v>
@@ -4173,7 +4195,7 @@
         <v>105</v>
       </c>
       <c r="K73" t="n">
-        <v>-18.51851851851852</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L73" t="n">
         <v>228.5</v>
@@ -4224,7 +4246,7 @@
         <v>106</v>
       </c>
       <c r="K74" t="n">
-        <v>-21.42857142857143</v>
+        <v>20</v>
       </c>
       <c r="L74" t="n">
         <v>228.9</v>
@@ -4275,7 +4297,7 @@
         <v>106</v>
       </c>
       <c r="K75" t="n">
-        <v>-18.51851851851852</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L75" t="n">
         <v>229.1</v>
@@ -4326,7 +4348,7 @@
         <v>109</v>
       </c>
       <c r="K76" t="n">
-        <v>-15.38461538461539</v>
+        <v>-40</v>
       </c>
       <c r="L76" t="n">
         <v>228.7</v>
@@ -4377,7 +4399,7 @@
         <v>109</v>
       </c>
       <c r="K77" t="n">
-        <v>-4.347826086956522</v>
+        <v>-25</v>
       </c>
       <c r="L77" t="n">
         <v>228.3</v>
@@ -4428,7 +4450,7 @@
         <v>110</v>
       </c>
       <c r="K78" t="n">
-        <v>-13.04347826086956</v>
+        <v>-50</v>
       </c>
       <c r="L78" t="n">
         <v>228</v>
@@ -4479,7 +4501,7 @@
         <v>118</v>
       </c>
       <c r="K79" t="n">
-        <v>-28.57142857142857</v>
+        <v>-73.33333333333333</v>
       </c>
       <c r="L79" t="n">
         <v>226.8</v>
@@ -4530,7 +4552,7 @@
         <v>125</v>
       </c>
       <c r="K80" t="n">
-        <v>-9.090909090909092</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L80" t="n">
         <v>226.4</v>
@@ -4581,7 +4603,7 @@
         <v>129</v>
       </c>
       <c r="K81" t="n">
-        <v>-18.91891891891892</v>
+        <v>-36</v>
       </c>
       <c r="L81" t="n">
         <v>225.5</v>
@@ -4632,7 +4654,7 @@
         <v>132</v>
       </c>
       <c r="K82" t="n">
-        <v>-5.263157894736842</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L82" t="n">
         <v>224.9</v>
@@ -4683,7 +4705,7 @@
         <v>133</v>
       </c>
       <c r="K83" t="n">
-        <v>-7.692307692307693</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L83" t="n">
         <v>224.1</v>
@@ -4734,7 +4756,7 @@
         <v>135</v>
       </c>
       <c r="K84" t="n">
-        <v>-2.439024390243902</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L84" t="n">
         <v>223.6</v>
@@ -4836,7 +4858,7 @@
         <v>136</v>
       </c>
       <c r="K86" t="n">
-        <v>-13.51351351351351</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L86" t="n">
         <v>223</v>
@@ -4887,7 +4909,7 @@
         <v>137</v>
       </c>
       <c r="K87" t="n">
-        <v>-15.78947368421053</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L87" t="n">
         <v>222.8</v>
@@ -4938,7 +4960,7 @@
         <v>138</v>
       </c>
       <c r="K88" t="n">
-        <v>-13.51351351351351</v>
+        <v>30</v>
       </c>
       <c r="L88" t="n">
         <v>222.6</v>
@@ -4989,7 +5011,7 @@
         <v>140</v>
       </c>
       <c r="K89" t="n">
-        <v>-21.05263157894737</v>
+        <v>-20</v>
       </c>
       <c r="L89" t="n">
         <v>223</v>
@@ -5040,7 +5062,7 @@
         <v>140</v>
       </c>
       <c r="K90" t="n">
-        <v>-18.91891891891892</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L90" t="n">
         <v>222.7</v>
@@ -5091,7 +5113,7 @@
         <v>141</v>
       </c>
       <c r="K91" t="n">
-        <v>-24.32432432432433</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L91" t="n">
         <v>222.7</v>
@@ -5142,7 +5164,7 @@
         <v>143</v>
       </c>
       <c r="K92" t="n">
-        <v>-28.2051282051282</v>
+        <v>-40</v>
       </c>
       <c r="L92" t="n">
         <v>222.2</v>
@@ -5193,7 +5215,7 @@
         <v>144</v>
       </c>
       <c r="K93" t="n">
-        <v>-28.2051282051282</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L93" t="n">
         <v>221.9</v>
@@ -5244,7 +5266,7 @@
         <v>144</v>
       </c>
       <c r="K94" t="n">
-        <v>-26.31578947368421</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L94" t="n">
         <v>221.4</v>
@@ -5295,7 +5317,7 @@
         <v>145</v>
       </c>
       <c r="K95" t="n">
-        <v>-28.2051282051282</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L95" t="n">
         <v>220.8</v>
@@ -5346,7 +5368,7 @@
         <v>146</v>
       </c>
       <c r="K96" t="n">
-        <v>-18.91891891891892</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L96" t="n">
         <v>220.2</v>
@@ -5397,7 +5419,7 @@
         <v>148</v>
       </c>
       <c r="K97" t="n">
-        <v>-23.07692307692308</v>
+        <v>-60</v>
       </c>
       <c r="L97" t="n">
         <v>219.5</v>
@@ -5448,7 +5470,7 @@
         <v>150</v>
       </c>
       <c r="K98" t="n">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="L98" t="n">
         <v>219.1</v>
@@ -5499,7 +5521,7 @@
         <v>154</v>
       </c>
       <c r="K99" t="n">
-        <v>-5.555555555555555</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L99" t="n">
         <v>218.5</v>
@@ -5550,7 +5572,7 @@
         <v>159</v>
       </c>
       <c r="K100" t="n">
-        <v>-41.17647058823529</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L100" t="n">
         <v>217.4</v>
@@ -5601,7 +5623,7 @@
         <v>159</v>
       </c>
       <c r="K101" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L101" t="n">
         <v>216.4</v>
@@ -5652,7 +5674,7 @@
         <v>161</v>
       </c>
       <c r="K102" t="n">
-        <v>-37.93103448275862</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L102" t="n">
         <v>215.8</v>
@@ -5703,7 +5725,7 @@
         <v>167</v>
       </c>
       <c r="K103" t="n">
-        <v>-11.76470588235294</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L103" t="n">
         <v>215.7</v>
@@ -5754,7 +5776,7 @@
         <v>173</v>
       </c>
       <c r="K104" t="n">
-        <v>-31.57894736842105</v>
+        <v>-21.42857142857143</v>
       </c>
       <c r="L104" t="n">
         <v>215</v>
@@ -5805,7 +5827,7 @@
         <v>180</v>
       </c>
       <c r="K105" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L105" t="n">
         <v>215.1</v>
@@ -5856,7 +5878,7 @@
         <v>185</v>
       </c>
       <c r="K106" t="n">
-        <v>-22.44897959183674</v>
+        <v>-8.108108108108109</v>
       </c>
       <c r="L106" t="n">
         <v>214.6</v>
@@ -5907,7 +5929,7 @@
         <v>186</v>
       </c>
       <c r="K107" t="n">
-        <v>-22.44897959183674</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L107" t="n">
         <v>214.2</v>
@@ -5958,7 +5980,7 @@
         <v>188</v>
       </c>
       <c r="K108" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>213.8</v>
@@ -6009,7 +6031,7 @@
         <v>189</v>
       </c>
       <c r="K109" t="n">
-        <v>-10.20408163265306</v>
+        <v>20</v>
       </c>
       <c r="L109" t="n">
         <v>213.9</v>
@@ -6060,7 +6082,7 @@
         <v>190</v>
       </c>
       <c r="K110" t="n">
-        <v>-12</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L110" t="n">
         <v>214.4</v>
@@ -6111,7 +6133,7 @@
         <v>191</v>
       </c>
       <c r="K111" t="n">
-        <v>-8</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L111" t="n">
         <v>215</v>
@@ -6162,7 +6184,7 @@
         <v>192</v>
       </c>
       <c r="K112" t="n">
-        <v>-6.122448979591836</v>
+        <v>-12</v>
       </c>
       <c r="L112" t="n">
         <v>215.3</v>
@@ -6213,7 +6235,7 @@
         <v>192</v>
       </c>
       <c r="K113" t="n">
-        <v>-8.333333333333332</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L113" t="n">
         <v>215</v>
@@ -6264,7 +6286,7 @@
         <v>195</v>
       </c>
       <c r="K114" t="n">
-        <v>-13.72549019607843</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L114" t="n">
         <v>215</v>
@@ -6315,7 +6337,7 @@
         <v>197</v>
       </c>
       <c r="K115" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
         <v>214.5</v>
@@ -6366,7 +6388,7 @@
         <v>197</v>
       </c>
       <c r="K116" t="n">
-        <v>-9.803921568627452</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L116" t="n">
         <v>214.5</v>
@@ -6417,7 +6439,7 @@
         <v>199</v>
       </c>
       <c r="K117" t="n">
-        <v>-9.803921568627452</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L117" t="n">
         <v>214.4</v>
@@ -6468,7 +6490,7 @@
         <v>200</v>
       </c>
       <c r="K118" t="n">
-        <v>-12</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L118" t="n">
         <v>214.2</v>
@@ -6519,7 +6541,7 @@
         <v>203</v>
       </c>
       <c r="K119" t="n">
-        <v>-10.20408163265306</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L119" t="n">
         <v>213.6</v>
@@ -6570,7 +6592,7 @@
         <v>204</v>
       </c>
       <c r="K120" t="n">
-        <v>-2.222222222222222</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L120" t="n">
         <v>213</v>
@@ -6621,7 +6643,7 @@
         <v>207</v>
       </c>
       <c r="K121" t="n">
-        <v>4.166666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L121" t="n">
         <v>212.6</v>
@@ -6672,7 +6694,7 @@
         <v>207</v>
       </c>
       <c r="K122" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L122" t="n">
         <v>212.3</v>
@@ -6723,7 +6745,7 @@
         <v>207</v>
       </c>
       <c r="K123" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="L123" t="n">
         <v>212</v>
@@ -6774,7 +6796,7 @@
         <v>211</v>
       </c>
       <c r="K124" t="n">
-        <v>-10.52631578947368</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L124" t="n">
         <v>211.6</v>
@@ -6825,7 +6847,7 @@
         <v>211</v>
       </c>
       <c r="K125" t="n">
-        <v>-35.48387096774194</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L125" t="n">
         <v>211</v>
@@ -6876,7 +6898,7 @@
         <v>215</v>
       </c>
       <c r="K126" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L126" t="n">
         <v>210.8</v>
@@ -6927,7 +6949,7 @@
         <v>215</v>
       </c>
       <c r="K127" t="n">
-        <v>-3.448275862068965</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L127" t="n">
         <v>210.8</v>
@@ -6978,7 +7000,7 @@
         <v>215</v>
       </c>
       <c r="K128" t="n">
-        <v>-11.11111111111111</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L128" t="n">
         <v>210.7</v>
@@ -7029,7 +7051,7 @@
         <v>218</v>
       </c>
       <c r="K129" t="n">
-        <v>-24.13793103448276</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
         <v>210.6</v>
@@ -7080,7 +7102,7 @@
         <v>218</v>
       </c>
       <c r="K130" t="n">
-        <v>-21.42857142857143</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L130" t="n">
         <v>210.6</v>
@@ -7131,7 +7153,7 @@
         <v>222</v>
       </c>
       <c r="K131" t="n">
-        <v>-9.67741935483871</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L131" t="n">
         <v>210.7</v>
@@ -7182,7 +7204,7 @@
         <v>225</v>
       </c>
       <c r="K132" t="n">
-        <v>3.03030303030303</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L132" t="n">
         <v>211.1</v>
@@ -7233,7 +7255,7 @@
         <v>226</v>
       </c>
       <c r="K133" t="n">
-        <v>5.88235294117647</v>
+        <v>60</v>
       </c>
       <c r="L133" t="n">
         <v>211.6</v>
@@ -7284,7 +7306,7 @@
         <v>227</v>
       </c>
       <c r="K134" t="n">
-        <v>12.5</v>
+        <v>50</v>
       </c>
       <c r="L134" t="n">
         <v>212.4</v>
@@ -7335,7 +7357,7 @@
         <v>234</v>
       </c>
       <c r="K135" t="n">
-        <v>-13.51351351351351</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L135" t="n">
         <v>212.5</v>
@@ -7386,7 +7408,7 @@
         <v>234</v>
       </c>
       <c r="K136" t="n">
-        <v>-13.51351351351351</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L136" t="n">
         <v>212.2</v>
@@ -7437,7 +7459,7 @@
         <v>235</v>
       </c>
       <c r="K137" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L137" t="n">
         <v>211.8</v>
@@ -7488,7 +7510,7 @@
         <v>236</v>
       </c>
       <c r="K138" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L138" t="n">
         <v>211.5</v>
@@ -7539,7 +7561,7 @@
         <v>237</v>
       </c>
       <c r="K139" t="n">
-        <v>-5.88235294117647</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L139" t="n">
         <v>211.4</v>
@@ -7590,7 +7612,7 @@
         <v>243</v>
       </c>
       <c r="K140" t="n">
-        <v>12.82051282051282</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L140" t="n">
         <v>211.9</v>
@@ -7641,7 +7663,7 @@
         <v>250</v>
       </c>
       <c r="K141" t="n">
-        <v>-11.62790697674419</v>
+        <v>-36</v>
       </c>
       <c r="L141" t="n">
         <v>211.3</v>
@@ -7692,7 +7714,7 @@
         <v>254</v>
       </c>
       <c r="K142" t="n">
-        <v>-2.127659574468085</v>
+        <v>-21.42857142857143</v>
       </c>
       <c r="L142" t="n">
         <v>210.8</v>
@@ -7743,7 +7765,7 @@
         <v>258</v>
       </c>
       <c r="K143" t="n">
-        <v>-9.803921568627452</v>
+        <v>-29.03225806451613</v>
       </c>
       <c r="L143" t="n">
         <v>209.8</v>
@@ -7794,7 +7816,7 @@
         <v>262</v>
       </c>
       <c r="K144" t="n">
-        <v>5.88235294117647</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="L144" t="n">
         <v>209.3</v>
@@ -7845,7 +7867,7 @@
         <v>264</v>
       </c>
       <c r="K145" t="n">
-        <v>9.433962264150944</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L145" t="n">
         <v>209.7</v>
@@ -7896,7 +7918,7 @@
         <v>264</v>
       </c>
       <c r="K146" t="n">
-        <v>2.040816326530612</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L146" t="n">
         <v>210.1</v>
@@ -7947,7 +7969,7 @@
         <v>264</v>
       </c>
       <c r="K147" t="n">
-        <v>2.040816326530612</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L147" t="n">
         <v>210.6</v>
@@ -7998,7 +8020,7 @@
         <v>264</v>
       </c>
       <c r="K148" t="n">
-        <v>2.040816326530612</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L148" t="n">
         <v>211</v>
@@ -8049,7 +8071,7 @@
         <v>269</v>
       </c>
       <c r="K149" t="n">
-        <v>-1.96078431372549</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L149" t="n">
         <v>211</v>
@@ -8100,7 +8122,7 @@
         <v>269</v>
       </c>
       <c r="K150" t="n">
-        <v>-1.96078431372549</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L150" t="n">
         <v>210.4</v>
@@ -8151,7 +8173,7 @@
         <v>273</v>
       </c>
       <c r="K151" t="n">
-        <v>-1.96078431372549</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L151" t="n">
         <v>210.9</v>
@@ -8202,7 +8224,7 @@
         <v>274</v>
       </c>
       <c r="K152" t="n">
-        <v>-10.20408163265306</v>
+        <v>25</v>
       </c>
       <c r="L152" t="n">
         <v>210.9</v>
@@ -8253,7 +8275,7 @@
         <v>275</v>
       </c>
       <c r="K153" t="n">
-        <v>-10.20408163265306</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L153" t="n">
         <v>211.4</v>
@@ -8304,7 +8326,7 @@
         <v>275</v>
       </c>
       <c r="K154" t="n">
-        <v>-8.333333333333332</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L154" t="n">
         <v>211.5</v>
@@ -8355,7 +8377,7 @@
         <v>275</v>
       </c>
       <c r="K155" t="n">
-        <v>7.317073170731707</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L155" t="n">
         <v>211.4</v>
@@ -8406,7 +8428,7 @@
         <v>276</v>
       </c>
       <c r="K156" t="n">
-        <v>9.523809523809524</v>
+        <v>0</v>
       </c>
       <c r="L156" t="n">
         <v>211.4</v>
@@ -8457,7 +8479,7 @@
         <v>276</v>
       </c>
       <c r="K157" t="n">
-        <v>12.19512195121951</v>
+        <v>0</v>
       </c>
       <c r="L157" t="n">
         <v>211.4</v>
@@ -8508,7 +8530,7 @@
         <v>276</v>
       </c>
       <c r="K158" t="n">
-        <v>10</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L158" t="n">
         <v>211.4</v>
@@ -8559,7 +8581,7 @@
         <v>279</v>
       </c>
       <c r="K159" t="n">
-        <v>19.04761904761905</v>
+        <v>80</v>
       </c>
       <c r="L159" t="n">
         <v>212.2</v>
@@ -8610,7 +8632,7 @@
         <v>280</v>
       </c>
       <c r="K160" t="n">
-        <v>2.702702702702703</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L160" t="n">
         <v>212.9</v>
@@ -8661,7 +8683,7 @@
         <v>280</v>
       </c>
       <c r="K161" t="n">
-        <v>26.66666666666667</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L161" t="n">
         <v>213.2</v>
@@ -8712,7 +8734,7 @@
         <v>280</v>
       </c>
       <c r="K162" t="n">
-        <v>15.38461538461539</v>
+        <v>60</v>
       </c>
       <c r="L162" t="n">
         <v>213.6</v>
@@ -8763,7 +8785,7 @@
         <v>281</v>
       </c>
       <c r="K163" t="n">
-        <v>39.1304347826087</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L163" t="n">
         <v>214</v>
@@ -8814,7 +8836,7 @@
         <v>282</v>
       </c>
       <c r="K164" t="n">
-        <v>20</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L164" t="n">
         <v>214.3</v>
@@ -8865,7 +8887,7 @@
         <v>283</v>
       </c>
       <c r="K165" t="n">
-        <v>15.78947368421053</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L165" t="n">
         <v>214.7</v>
@@ -9018,7 +9040,7 @@
         <v>287</v>
       </c>
       <c r="K168" t="n">
-        <v>4.347826086956522</v>
+        <v>-25</v>
       </c>
       <c r="L168" t="n">
         <v>214.8</v>
@@ -9069,7 +9091,7 @@
         <v>290</v>
       </c>
       <c r="K169" t="n">
-        <v>14.28571428571428</v>
+        <v>-40</v>
       </c>
       <c r="L169" t="n">
         <v>214.3</v>
@@ -9120,7 +9142,7 @@
         <v>292</v>
       </c>
       <c r="K170" t="n">
-        <v>21.73913043478261</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L170" t="n">
         <v>214.1</v>
@@ -9171,7 +9193,7 @@
         <v>293</v>
       </c>
       <c r="K171" t="n">
-        <v>0</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L171" t="n">
         <v>213.8</v>
@@ -9222,7 +9244,7 @@
         <v>294</v>
       </c>
       <c r="K172" t="n">
-        <v>10</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L172" t="n">
         <v>213.6</v>
@@ -9273,7 +9295,7 @@
         <v>294</v>
       </c>
       <c r="K173" t="n">
-        <v>5.263157894736842</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L173" t="n">
         <v>213.3</v>
@@ -9324,7 +9346,7 @@
         <v>296</v>
       </c>
       <c r="K174" t="n">
-        <v>-4.761904761904762</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L174" t="n">
         <v>212.9</v>
@@ -9375,7 +9397,7 @@
         <v>298</v>
       </c>
       <c r="K175" t="n">
-        <v>4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L175" t="n">
         <v>212.6</v>
@@ -9426,7 +9448,7 @@
         <v>299</v>
       </c>
       <c r="K176" t="n">
-        <v>-4.347826086956522</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L176" t="n">
         <v>212.5</v>
@@ -9477,7 +9499,7 @@
         <v>301</v>
       </c>
       <c r="K177" t="n">
-        <v>-12</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L177" t="n">
         <v>212.2</v>
@@ -9528,7 +9550,7 @@
         <v>302</v>
       </c>
       <c r="K178" t="n">
-        <v>-15.38461538461539</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L178" t="n">
         <v>211.7</v>
@@ -9579,7 +9601,7 @@
         <v>305</v>
       </c>
       <c r="K179" t="n">
-        <v>-15.38461538461539</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L179" t="n">
         <v>211.8</v>
@@ -9630,7 +9652,7 @@
         <v>307</v>
       </c>
       <c r="K180" t="n">
-        <v>-18.51851851851852</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L180" t="n">
         <v>211.5</v>
@@ -9681,7 +9703,7 @@
         <v>309</v>
       </c>
       <c r="K181" t="n">
-        <v>-10.3448275862069</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L181" t="n">
         <v>211.5</v>
@@ -9732,7 +9754,7 @@
         <v>311</v>
       </c>
       <c r="K182" t="n">
-        <v>-16.12903225806452</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L182" t="n">
         <v>211.2</v>
@@ -9783,7 +9805,7 @@
         <v>311</v>
       </c>
       <c r="K183" t="n">
-        <v>-20</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L183" t="n">
         <v>210.9</v>
@@ -9834,7 +9856,7 @@
         <v>311</v>
       </c>
       <c r="K184" t="n">
-        <v>-17.24137931034483</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L184" t="n">
         <v>210.8</v>
@@ -9885,7 +9907,7 @@
         <v>314</v>
       </c>
       <c r="K185" t="n">
-        <v>-29.03225806451613</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L185" t="n">
         <v>210.2</v>
@@ -9936,7 +9958,7 @@
         <v>314</v>
       </c>
       <c r="K186" t="n">
-        <v>-21.42857142857143</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L186" t="n">
         <v>209.7</v>
@@ -9987,7 +10009,7 @@
         <v>316</v>
       </c>
       <c r="K187" t="n">
-        <v>-13.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L187" t="n">
         <v>209.6</v>
@@ -10038,7 +10060,7 @@
         <v>316</v>
       </c>
       <c r="K188" t="n">
-        <v>-17.24137931034483</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L188" t="n">
         <v>209.6</v>
@@ -10089,7 +10111,7 @@
         <v>319</v>
       </c>
       <c r="K189" t="n">
-        <v>-17.24137931034483</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L189" t="n">
         <v>209</v>
@@ -10140,7 +10162,7 @@
         <v>321</v>
       </c>
       <c r="K190" t="n">
-        <v>-17.24137931034483</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L190" t="n">
         <v>208.8</v>
@@ -10191,7 +10213,7 @@
         <v>321</v>
       </c>
       <c r="K191" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L191" t="n">
         <v>208.4</v>
@@ -10242,7 +10264,7 @@
         <v>321</v>
       </c>
       <c r="K192" t="n">
-        <v>-18.51851851851852</v>
+        <v>-20</v>
       </c>
       <c r="L192" t="n">
         <v>208.2</v>
@@ -10293,7 +10315,7 @@
         <v>321</v>
       </c>
       <c r="K193" t="n">
-        <v>-18.51851851851852</v>
+        <v>-20</v>
       </c>
       <c r="L193" t="n">
         <v>208</v>
@@ -10344,7 +10366,7 @@
         <v>323</v>
       </c>
       <c r="K194" t="n">
-        <v>-18.51851851851852</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L194" t="n">
         <v>207.6</v>
@@ -10395,7 +10417,7 @@
         <v>325</v>
       </c>
       <c r="K195" t="n">
-        <v>-33.33333333333333</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L195" t="n">
         <v>207.3</v>
@@ -10446,7 +10468,7 @@
         <v>326</v>
       </c>
       <c r="K196" t="n">
-        <v>-25.92592592592592</v>
+        <v>-40</v>
       </c>
       <c r="L196" t="n">
         <v>207.1</v>
@@ -10497,7 +10519,7 @@
         <v>326</v>
       </c>
       <c r="K197" t="n">
-        <v>-20</v>
+        <v>-40</v>
       </c>
       <c r="L197" t="n">
         <v>206.7</v>
@@ -10548,7 +10570,7 @@
         <v>327</v>
       </c>
       <c r="K198" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L198" t="n">
         <v>206.2</v>
@@ -10599,7 +10621,7 @@
         <v>328</v>
       </c>
       <c r="K199" t="n">
-        <v>-30.43478260869566</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L199" t="n">
         <v>206.1</v>
@@ -10650,7 +10672,7 @@
         <v>328</v>
       </c>
       <c r="K200" t="n">
-        <v>-23.80952380952381</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L200" t="n">
         <v>205.8</v>
@@ -10701,7 +10723,7 @@
         <v>328</v>
       </c>
       <c r="K201" t="n">
-        <v>-36.84210526315789</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L201" t="n">
         <v>205.5</v>
@@ -10752,7 +10774,7 @@
         <v>329</v>
       </c>
       <c r="K202" t="n">
-        <v>-22.22222222222222</v>
+        <v>-25</v>
       </c>
       <c r="L202" t="n">
         <v>205.3</v>
@@ -10803,7 +10825,7 @@
         <v>329</v>
       </c>
       <c r="K203" t="n">
-        <v>-22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L203" t="n">
         <v>205.1</v>
@@ -10854,7 +10876,7 @@
         <v>329</v>
       </c>
       <c r="K204" t="n">
-        <v>-22.22222222222222</v>
+        <v>50</v>
       </c>
       <c r="L204" t="n">
         <v>205.1</v>
@@ -10905,7 +10927,7 @@
         <v>329</v>
       </c>
       <c r="K205" t="n">
-        <v>-6.666666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L205" t="n">
         <v>205.3</v>
@@ -10956,7 +10978,7 @@
         <v>329</v>
       </c>
       <c r="K206" t="n">
-        <v>-6.666666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L206" t="n">
         <v>205.4</v>
@@ -11007,7 +11029,7 @@
         <v>329</v>
       </c>
       <c r="K207" t="n">
-        <v>-23.07692307692308</v>
+        <v>100</v>
       </c>
       <c r="L207" t="n">
         <v>205.5</v>
@@ -11058,7 +11080,7 @@
         <v>329</v>
       </c>
       <c r="K208" t="n">
-        <v>-23.07692307692308</v>
+        <v>100</v>
       </c>
       <c r="L208" t="n">
         <v>205.7</v>
@@ -11109,7 +11131,7 @@
         <v>329</v>
       </c>
       <c r="K209" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L209" t="n">
         <v>205.8</v>
@@ -11160,7 +11182,7 @@
         <v>329</v>
       </c>
       <c r="K210" t="n">
-        <v>-25</v>
+        <v>100</v>
       </c>
       <c r="L210" t="n">
         <v>205.9</v>
@@ -11210,9 +11232,7 @@
       <c r="J211" t="n">
         <v>329</v>
       </c>
-      <c r="K211" t="n">
-        <v>-25</v>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>206</v>
       </c>
@@ -11261,9 +11281,7 @@
       <c r="J212" t="n">
         <v>329</v>
       </c>
-      <c r="K212" t="n">
-        <v>-25</v>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>206</v>
       </c>
@@ -11312,9 +11330,7 @@
       <c r="J213" t="n">
         <v>329</v>
       </c>
-      <c r="K213" t="n">
-        <v>-25</v>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>206</v>
       </c>
@@ -11364,7 +11380,7 @@
         <v>330</v>
       </c>
       <c r="K214" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L214" t="n">
         <v>205.9</v>
@@ -11415,7 +11431,7 @@
         <v>331</v>
       </c>
       <c r="K215" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L215" t="n">
         <v>205.7</v>
@@ -11466,7 +11482,7 @@
         <v>332</v>
       </c>
       <c r="K216" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L216" t="n">
         <v>205.6</v>
@@ -11517,7 +11533,7 @@
         <v>334</v>
       </c>
       <c r="K217" t="n">
-        <v>-25</v>
+        <v>-60</v>
       </c>
       <c r="L217" t="n">
         <v>205.3</v>
@@ -11568,7 +11584,7 @@
         <v>336</v>
       </c>
       <c r="K218" t="n">
-        <v>11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L218" t="n">
         <v>205.2</v>
@@ -11619,7 +11635,7 @@
         <v>338</v>
       </c>
       <c r="K219" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L219" t="n">
         <v>204.9</v>
@@ -11670,7 +11686,7 @@
         <v>339</v>
       </c>
       <c r="K220" t="n">
-        <v>-27.27272727272727</v>
+        <v>-40</v>
       </c>
       <c r="L220" t="n">
         <v>204.5</v>
@@ -11721,7 +11737,7 @@
         <v>341</v>
       </c>
       <c r="K221" t="n">
-        <v>-7.692307692307693</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L221" t="n">
         <v>204.3</v>
@@ -11823,7 +11839,7 @@
         <v>341</v>
       </c>
       <c r="K223" t="n">
-        <v>-16.66666666666666</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L223" t="n">
         <v>203.9</v>
@@ -11874,7 +11890,7 @@
         <v>344</v>
       </c>
       <c r="K224" t="n">
-        <v>6.666666666666667</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L224" t="n">
         <v>204.1</v>
@@ -11925,7 +11941,7 @@
         <v>347</v>
       </c>
       <c r="K225" t="n">
-        <v>-11.11111111111111</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L225" t="n">
         <v>204.1</v>
@@ -11976,7 +11992,7 @@
         <v>350</v>
       </c>
       <c r="K226" t="n">
-        <v>4.761904761904762</v>
+        <v>25</v>
       </c>
       <c r="L226" t="n">
         <v>204.3</v>
@@ -12027,7 +12043,7 @@
         <v>352</v>
       </c>
       <c r="K227" t="n">
-        <v>-4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L227" t="n">
         <v>204.5</v>
@@ -12078,7 +12094,7 @@
         <v>352</v>
       </c>
       <c r="K228" t="n">
-        <v>-4.347826086956522</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L228" t="n">
         <v>204.5</v>
@@ -12129,7 +12145,7 @@
         <v>352</v>
       </c>
       <c r="K229" t="n">
-        <v>-4.347826086956522</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L229" t="n">
         <v>204.7</v>
@@ -12180,7 +12196,7 @@
         <v>356</v>
       </c>
       <c r="K230" t="n">
-        <v>-18.51851851851852</v>
+        <v>-20</v>
       </c>
       <c r="L230" t="n">
         <v>204.6</v>
@@ -12231,7 +12247,7 @@
         <v>361</v>
       </c>
       <c r="K231" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L231" t="n">
         <v>204.8</v>
@@ -12282,7 +12298,7 @@
         <v>362</v>
       </c>
       <c r="K232" t="n">
-        <v>-3.03030303030303</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L232" t="n">
         <v>204.9</v>
@@ -12333,7 +12349,7 @@
         <v>362</v>
       </c>
       <c r="K233" t="n">
-        <v>-3.03030303030303</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L233" t="n">
         <v>205</v>
@@ -12384,7 +12400,7 @@
         <v>362</v>
       </c>
       <c r="K234" t="n">
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L234" t="n">
         <v>204.8</v>
@@ -12435,7 +12451,7 @@
         <v>363</v>
       </c>
       <c r="K235" t="n">
-        <v>6.25</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L235" t="n">
         <v>205</v>
@@ -12486,7 +12502,7 @@
         <v>364</v>
       </c>
       <c r="K236" t="n">
-        <v>6.25</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L236" t="n">
         <v>205</v>
@@ -12537,7 +12553,7 @@
         <v>365</v>
       </c>
       <c r="K237" t="n">
-        <v>16.12903225806452</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L237" t="n">
         <v>205.3</v>
@@ -12588,7 +12604,7 @@
         <v>365</v>
       </c>
       <c r="K238" t="n">
-        <v>10.3448275862069</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L238" t="n">
         <v>205.6</v>
@@ -12639,7 +12655,7 @@
         <v>369</v>
       </c>
       <c r="K239" t="n">
-        <v>29.03225806451613</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="L239" t="n">
         <v>206.3</v>
@@ -12690,7 +12706,7 @@
         <v>371</v>
       </c>
       <c r="K240" t="n">
-        <v>37.5</v>
+        <v>80</v>
       </c>
       <c r="L240" t="n">
         <v>207.6</v>
@@ -12741,7 +12757,7 @@
         <v>373</v>
       </c>
       <c r="K241" t="n">
-        <v>25</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L241" t="n">
         <v>208.2</v>
@@ -12792,7 +12808,7 @@
         <v>374</v>
       </c>
       <c r="K242" t="n">
-        <v>21.21212121212121</v>
+        <v>50</v>
       </c>
       <c r="L242" t="n">
         <v>208.8</v>
@@ -12843,7 +12859,7 @@
         <v>374</v>
       </c>
       <c r="K243" t="n">
-        <v>21.21212121212121</v>
+        <v>50</v>
       </c>
       <c r="L243" t="n">
         <v>209.4</v>
@@ -12894,7 +12910,7 @@
         <v>375</v>
       </c>
       <c r="K244" t="n">
-        <v>9.67741935483871</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L244" t="n">
         <v>209.9</v>
@@ -12945,7 +12961,7 @@
         <v>378</v>
       </c>
       <c r="K245" t="n">
-        <v>9.67741935483871</v>
+        <v>0</v>
       </c>
       <c r="L245" t="n">
         <v>210</v>
@@ -12996,7 +13012,7 @@
         <v>382</v>
       </c>
       <c r="K246" t="n">
-        <v>12.5</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L246" t="n">
         <v>210.4</v>
@@ -13047,7 +13063,7 @@
         <v>383</v>
       </c>
       <c r="K247" t="n">
-        <v>16.12903225806452</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L247" t="n">
         <v>210.6</v>
@@ -13098,7 +13114,7 @@
         <v>384</v>
       </c>
       <c r="K248" t="n">
-        <v>12.5</v>
+        <v>-20</v>
       </c>
       <c r="L248" t="n">
         <v>210.7</v>
@@ -13149,7 +13165,7 @@
         <v>384</v>
       </c>
       <c r="K249" t="n">
-        <v>12.5</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L249" t="n">
         <v>210.4</v>
@@ -13200,7 +13216,7 @@
         <v>386</v>
       </c>
       <c r="K250" t="n">
-        <v>20</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L250" t="n">
         <v>209.7</v>
@@ -13251,7 +13267,7 @@
         <v>388</v>
       </c>
       <c r="K251" t="n">
-        <v>11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L251" t="n">
         <v>209.4</v>
@@ -13302,7 +13318,7 @@
         <v>390</v>
       </c>
       <c r="K252" t="n">
-        <v>7.142857142857142</v>
+        <v>-25</v>
       </c>
       <c r="L252" t="n">
         <v>209</v>
@@ -13353,7 +13369,7 @@
         <v>391</v>
       </c>
       <c r="K253" t="n">
-        <v>10.3448275862069</v>
+        <v>-12.5</v>
       </c>
       <c r="L253" t="n">
         <v>208.7</v>
@@ -13404,7 +13420,7 @@
         <v>392</v>
       </c>
       <c r="K254" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L254" t="n">
         <v>208.4</v>
@@ -13455,7 +13471,7 @@
         <v>393</v>
       </c>
       <c r="K255" t="n">
-        <v>6.666666666666667</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L255" t="n">
         <v>208.5</v>
@@ -13506,7 +13522,7 @@
         <v>394</v>
       </c>
       <c r="K256" t="n">
-        <v>0</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L256" t="n">
         <v>208.1</v>
@@ -13557,7 +13573,7 @@
         <v>398</v>
       </c>
       <c r="K257" t="n">
-        <v>9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L257" t="n">
         <v>208.2</v>
@@ -13608,7 +13624,7 @@
         <v>398</v>
       </c>
       <c r="K258" t="n">
-        <v>9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L258" t="n">
         <v>208.4</v>
@@ -13659,7 +13675,7 @@
         <v>404</v>
       </c>
       <c r="K259" t="n">
-        <v>-20</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L259" t="n">
         <v>208</v>
@@ -13710,7 +13726,7 @@
         <v>408</v>
       </c>
       <c r="K260" t="n">
-        <v>-13.51351351351351</v>
+        <v>0</v>
       </c>
       <c r="L260" t="n">
         <v>208.2</v>
@@ -13761,7 +13777,7 @@
         <v>413</v>
       </c>
       <c r="K261" t="n">
-        <v>-20</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L261" t="n">
         <v>207.7</v>
@@ -13812,7 +13828,7 @@
         <v>413</v>
       </c>
       <c r="K262" t="n">
-        <v>-17.94871794871795</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L262" t="n">
         <v>207.4</v>
@@ -13863,7 +13879,7 @@
         <v>413</v>
       </c>
       <c r="K263" t="n">
-        <v>-17.94871794871795</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L263" t="n">
         <v>207</v>
@@ -13914,7 +13930,7 @@
         <v>416</v>
       </c>
       <c r="K264" t="n">
-        <v>-21.95121951219512</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L264" t="n">
         <v>206.4</v>
@@ -13965,7 +13981,7 @@
         <v>417</v>
       </c>
       <c r="K265" t="n">
-        <v>-12.82051282051282</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L265" t="n">
         <v>205.8</v>
@@ -14016,7 +14032,7 @@
         <v>418</v>
       </c>
       <c r="K266" t="n">
-        <v>-22.22222222222222</v>
+        <v>-40</v>
       </c>
       <c r="L266" t="n">
         <v>205.4</v>
@@ -14067,7 +14083,7 @@
         <v>418</v>
       </c>
       <c r="K267" t="n">
-        <v>-20</v>
+        <v>-40</v>
       </c>
       <c r="L267" t="n">
         <v>204.6</v>
@@ -14118,7 +14134,7 @@
         <v>421</v>
       </c>
       <c r="K268" t="n">
-        <v>-8.108108108108109</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L268" t="n">
         <v>204.1</v>
@@ -14169,7 +14185,7 @@
         <v>421</v>
       </c>
       <c r="K269" t="n">
-        <v>-8.108108108108109</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L269" t="n">
         <v>204.2</v>
@@ -14220,7 +14236,7 @@
         <v>421</v>
       </c>
       <c r="K270" t="n">
-        <v>-2.857142857142857</v>
+        <v>25</v>
       </c>
       <c r="L270" t="n">
         <v>203.9</v>
@@ -14271,7 +14287,7 @@
         <v>423</v>
       </c>
       <c r="K271" t="n">
-        <v>-2.857142857142857</v>
+        <v>40</v>
       </c>
       <c r="L271" t="n">
         <v>204.3</v>
@@ -14322,7 +14338,7 @@
         <v>423</v>
       </c>
       <c r="K272" t="n">
-        <v>3.03030303030303</v>
+        <v>40</v>
       </c>
       <c r="L272" t="n">
         <v>204.7</v>
@@ -14373,7 +14389,7 @@
         <v>427</v>
       </c>
       <c r="K273" t="n">
-        <v>-11.11111111111111</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L273" t="n">
         <v>204.7</v>
@@ -14424,7 +14440,7 @@
         <v>430</v>
       </c>
       <c r="K274" t="n">
-        <v>-15.78947368421053</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L274" t="n">
         <v>204.7</v>

--- a/BackTest/2019-10-11 BackTest STEEM.xlsx
+++ b/BackTest/2019-10-11 BackTest STEEM.xlsx
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2379,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -7311,17 +7311,13 @@
         <v>210.7833333333333</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>204</v>
-      </c>
-      <c r="K198" t="n">
-        <v>204</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
@@ -7356,16 +7352,12 @@
         <v>0</v>
       </c>
       <c r="J199" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K199" t="n">
         <v>204</v>
       </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7485,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="J202" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K202" t="n">
         <v>204</v>
@@ -8219,14 +8211,12 @@
         <v>208.4333333333333</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>202</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="n">
         <v>204</v>
       </c>
@@ -8262,14 +8252,12 @@
         <v>208.25</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>204</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="n">
         <v>204</v>
       </c>
@@ -8305,14 +8293,12 @@
         <v>208.0666666666667</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>204</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="n">
         <v>204</v>
       </c>
@@ -8348,14 +8334,12 @@
         <v>207.8666666666667</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
-        <v>204</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="n">
         <v>204</v>
       </c>
@@ -8391,14 +8375,12 @@
         <v>207.7333333333333</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>207</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="n">
         <v>204</v>
       </c>
@@ -8434,14 +8416,12 @@
         <v>207.5333333333333</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>205</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="n">
         <v>204</v>
       </c>
@@ -8477,14 +8457,12 @@
         <v>207.4333333333333</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>207</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="n">
         <v>204</v>
       </c>
@@ -8520,14 +8498,12 @@
         <v>207.3</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>205</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="n">
         <v>204</v>
       </c>
@@ -8563,14 +8539,12 @@
         <v>207.15</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>205</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="n">
         <v>204</v>
       </c>
@@ -8606,14 +8580,12 @@
         <v>207.05</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
-        <v>205</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="n">
         <v>204</v>
       </c>
@@ -8649,14 +8621,12 @@
         <v>206.85</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="n">
-        <v>204</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="n">
         <v>204</v>
       </c>
@@ -8692,14 +8662,12 @@
         <v>206.75</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="n">
-        <v>206</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="n">
         <v>204</v>
       </c>
@@ -8735,14 +8703,12 @@
         <v>206.6166666666667</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="n">
-        <v>205</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="n">
         <v>204</v>
       </c>
@@ -8778,14 +8744,12 @@
         <v>206.4833333333333</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
-        <v>205</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="n">
         <v>204</v>
       </c>
@@ -8821,14 +8785,12 @@
         <v>206.3833333333333</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>205</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="n">
         <v>204</v>
       </c>
@@ -8864,14 +8826,12 @@
         <v>206.2666666666667</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
-        <v>206</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="n">
         <v>204</v>
       </c>
@@ -8907,14 +8867,12 @@
         <v>206.1833333333333</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>207</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="n">
         <v>204</v>
       </c>
@@ -8950,14 +8908,12 @@
         <v>206.15</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="n">
-        <v>207</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="n">
         <v>204</v>
       </c>
@@ -8993,14 +8949,12 @@
         <v>206.1333333333333</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
-        <v>208</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="n">
         <v>204</v>
       </c>
@@ -9036,14 +8990,12 @@
         <v>206.1333333333333</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="n">
-        <v>212</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="n">
         <v>204</v>
       </c>
@@ -9079,14 +9031,12 @@
         <v>206.2</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="n">
-        <v>214</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="n">
         <v>204</v>
       </c>
@@ -9122,14 +9072,12 @@
         <v>206.2</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="n">
-        <v>211</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="n">
         <v>204</v>
       </c>

--- a/BackTest/2019-10-11 BackTest STEEM.xlsx
+++ b/BackTest/2019-10-11 BackTest STEEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M253"/>
+  <dimension ref="A1:M254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C2" t="n">
         <v>215</v>
@@ -445,10 +445,10 @@
         <v>214</v>
       </c>
       <c r="F2" t="n">
-        <v>22333.0335</v>
+        <v>26730.9688</v>
       </c>
       <c r="G2" t="n">
-        <v>211.0166666666667</v>
+        <v>210.9</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>215</v>
       </c>
       <c r="C3" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D3" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E3" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F3" t="n">
-        <v>11998.4044</v>
+        <v>22333.0335</v>
       </c>
       <c r="G3" t="n">
-        <v>211.1</v>
+        <v>211.0166666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>215</v>
       </c>
       <c r="C4" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D4" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E4" t="n">
         <v>215</v>
       </c>
       <c r="F4" t="n">
-        <v>2429.6142</v>
+        <v>11998.4044</v>
       </c>
       <c r="G4" t="n">
-        <v>211.1833333333333</v>
+        <v>211.1</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -541,19 +541,19 @@
         <v>215</v>
       </c>
       <c r="C5" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D5" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E5" t="n">
         <v>215</v>
       </c>
       <c r="F5" t="n">
-        <v>1822.3344</v>
+        <v>2429.6142</v>
       </c>
       <c r="G5" t="n">
-        <v>211.3166666666667</v>
+        <v>211.1833333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>215</v>
+      </c>
+      <c r="C6" t="n">
         <v>217</v>
       </c>
-      <c r="C6" t="n">
-        <v>218</v>
-      </c>
       <c r="D6" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E6" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F6" t="n">
-        <v>2584.8961</v>
+        <v>1822.3344</v>
       </c>
       <c r="G6" t="n">
-        <v>211.4333333333333</v>
+        <v>211.3166666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -611,19 +611,19 @@
         <v>217</v>
       </c>
       <c r="C7" t="n">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D7" t="n">
+        <v>218</v>
+      </c>
+      <c r="E7" t="n">
         <v>217</v>
       </c>
-      <c r="E7" t="n">
-        <v>214</v>
-      </c>
       <c r="F7" t="n">
-        <v>9567.189</v>
+        <v>2584.8961</v>
       </c>
       <c r="G7" t="n">
-        <v>211.4833333333333</v>
+        <v>211.4333333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C8" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D8" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E8" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>9567.189</v>
       </c>
       <c r="G8" t="n">
-        <v>211.6</v>
+        <v>211.4833333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C9" t="n">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D9" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E9" t="n">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F9" t="n">
-        <v>20701.4924</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>211.6333333333333</v>
+        <v>211.6</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C10" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D10" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E10" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F10" t="n">
-        <v>3550.9938</v>
+        <v>20701.4924</v>
       </c>
       <c r="G10" t="n">
-        <v>211.7</v>
+        <v>211.6333333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C11" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D11" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E11" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F11" t="n">
-        <v>788.6555</v>
+        <v>3550.9938</v>
       </c>
       <c r="G11" t="n">
-        <v>211.75</v>
+        <v>211.7</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -789,16 +789,16 @@
         <v>215</v>
       </c>
       <c r="D12" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E12" t="n">
         <v>215</v>
       </c>
       <c r="F12" t="n">
-        <v>751.4577</v>
+        <v>788.6555</v>
       </c>
       <c r="G12" t="n">
-        <v>211.8333333333333</v>
+        <v>211.75</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C13" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D13" t="n">
         <v>217</v>
       </c>
       <c r="E13" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>751.4577</v>
       </c>
       <c r="G13" t="n">
-        <v>211.95</v>
+        <v>211.8333333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C14" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D14" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E14" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F14" t="n">
-        <v>260.8666</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>212.0333333333333</v>
+        <v>211.95</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C15" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D15" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E15" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>260.8666</v>
       </c>
       <c r="G15" t="n">
-        <v>212.1666666666667</v>
+        <v>212.0333333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C16" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D16" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E16" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F16" t="n">
-        <v>381.7739</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>212.2833333333333</v>
+        <v>212.1666666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C17" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D17" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E17" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F17" t="n">
-        <v>10000</v>
+        <v>381.7739</v>
       </c>
       <c r="G17" t="n">
-        <v>212.3833333333333</v>
+        <v>212.2833333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C18" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D18" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E18" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F18" t="n">
-        <v>192.6248</v>
+        <v>10000</v>
       </c>
       <c r="G18" t="n">
-        <v>212.5333333333333</v>
+        <v>212.3833333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>216</v>
       </c>
       <c r="C19" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D19" t="n">
+        <v>217</v>
+      </c>
+      <c r="E19" t="n">
         <v>216</v>
       </c>
-      <c r="E19" t="n">
-        <v>215</v>
-      </c>
       <c r="F19" t="n">
-        <v>4536.7876</v>
+        <v>192.6248</v>
       </c>
       <c r="G19" t="n">
-        <v>212.65</v>
+        <v>212.5333333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C20" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D20" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E20" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>4536.7876</v>
       </c>
       <c r="G20" t="n">
-        <v>212.7666666666667</v>
+        <v>212.65</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>217</v>
       </c>
       <c r="F21" t="n">
-        <v>12649.7027</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>212.9</v>
+        <v>212.7666666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>217</v>
       </c>
       <c r="C22" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D22" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E22" t="n">
         <v>217</v>
       </c>
       <c r="F22" t="n">
-        <v>30148.7778</v>
+        <v>12649.7027</v>
       </c>
       <c r="G22" t="n">
-        <v>213.0166666666667</v>
+        <v>212.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C23" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D23" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E23" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F23" t="n">
-        <v>8557.853800000001</v>
+        <v>30148.7778</v>
       </c>
       <c r="G23" t="n">
-        <v>213.15</v>
+        <v>213.0166666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>219</v>
       </c>
       <c r="C24" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D24" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E24" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F24" t="n">
-        <v>15104.0125</v>
+        <v>8557.853800000001</v>
       </c>
       <c r="G24" t="n">
-        <v>213.3166666666667</v>
+        <v>213.15</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,7 +1238,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C25" t="n">
         <v>220</v>
@@ -1250,10 +1250,10 @@
         <v>217</v>
       </c>
       <c r="F25" t="n">
-        <v>11338.6294</v>
+        <v>15104.0125</v>
       </c>
       <c r="G25" t="n">
-        <v>213.4833333333333</v>
+        <v>213.3166666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,7 +1273,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C26" t="n">
         <v>220</v>
@@ -1282,13 +1282,13 @@
         <v>220</v>
       </c>
       <c r="E26" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F26" t="n">
-        <v>2586.4717</v>
+        <v>11338.6294</v>
       </c>
       <c r="G26" t="n">
-        <v>213.65</v>
+        <v>213.4833333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C27" t="n">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D27" t="n">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E27" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F27" t="n">
-        <v>5739.0563</v>
+        <v>2586.4717</v>
       </c>
       <c r="G27" t="n">
-        <v>213.85</v>
+        <v>213.65</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C28" t="n">
         <v>222</v>
       </c>
       <c r="D28" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E28" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F28" t="n">
-        <v>942.1691</v>
+        <v>5739.0563</v>
       </c>
       <c r="G28" t="n">
-        <v>214.05</v>
+        <v>213.85</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C29" t="n">
         <v>222</v>
       </c>
       <c r="D29" t="n">
+        <v>223</v>
+      </c>
+      <c r="E29" t="n">
         <v>222</v>
       </c>
-      <c r="E29" t="n">
-        <v>220</v>
-      </c>
       <c r="F29" t="n">
-        <v>3250</v>
+        <v>942.1691</v>
       </c>
       <c r="G29" t="n">
-        <v>214.2333333333333</v>
+        <v>214.05</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C30" t="n">
         <v>222</v>
       </c>
       <c r="D30" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E30" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F30" t="n">
-        <v>9552.8735</v>
+        <v>3250</v>
       </c>
       <c r="G30" t="n">
-        <v>214.4333333333333</v>
+        <v>214.2333333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,19 +1451,19 @@
         <v>222</v>
       </c>
       <c r="C31" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D31" t="n">
         <v>223</v>
       </c>
       <c r="E31" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F31" t="n">
-        <v>17002.9976</v>
+        <v>9552.8735</v>
       </c>
       <c r="G31" t="n">
-        <v>214.6333333333333</v>
+        <v>214.4333333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1486,19 +1486,19 @@
         <v>222</v>
       </c>
       <c r="C32" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D32" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E32" t="n">
         <v>222</v>
       </c>
       <c r="F32" t="n">
-        <v>8349.4501</v>
+        <v>17002.9976</v>
       </c>
       <c r="G32" t="n">
-        <v>214.8166666666667</v>
+        <v>214.6333333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>222</v>
       </c>
       <c r="F33" t="n">
-        <v>16497.7342</v>
+        <v>8349.4501</v>
       </c>
       <c r="G33" t="n">
-        <v>214.9833333333333</v>
+        <v>214.8166666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>222</v>
       </c>
       <c r="F34" t="n">
-        <v>2437.8062</v>
+        <v>16497.7342</v>
       </c>
       <c r="G34" t="n">
-        <v>215.1833333333333</v>
+        <v>214.9833333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C35" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D35" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E35" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F35" t="n">
-        <v>2463.4796</v>
+        <v>2437.8062</v>
       </c>
       <c r="G35" t="n">
-        <v>215.3666666666667</v>
+        <v>215.1833333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C36" t="n">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D36" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E36" t="n">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F36" t="n">
-        <v>1173.4629</v>
+        <v>2463.4796</v>
       </c>
       <c r="G36" t="n">
-        <v>215.4666666666667</v>
+        <v>215.3666666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>220</v>
       </c>
       <c r="C37" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D37" t="n">
         <v>220</v>
       </c>
       <c r="E37" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F37" t="n">
-        <v>5192.8251</v>
+        <v>1173.4629</v>
       </c>
       <c r="G37" t="n">
-        <v>215.5833333333333</v>
+        <v>215.4666666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1702,13 +1702,13 @@
         <v>220</v>
       </c>
       <c r="E38" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F38" t="n">
-        <v>7375.8131</v>
+        <v>5192.8251</v>
       </c>
       <c r="G38" t="n">
-        <v>215.7333333333333</v>
+        <v>215.5833333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C39" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D39" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E39" t="n">
         <v>218</v>
       </c>
       <c r="F39" t="n">
-        <v>15749.7514</v>
+        <v>7375.8131</v>
       </c>
       <c r="G39" t="n">
-        <v>215.85</v>
+        <v>215.7333333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1766,19 +1766,19 @@
         <v>218</v>
       </c>
       <c r="C40" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D40" t="n">
         <v>218</v>
       </c>
       <c r="E40" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F40" t="n">
-        <v>3537.1907</v>
+        <v>15749.7514</v>
       </c>
       <c r="G40" t="n">
-        <v>215.95</v>
+        <v>215.85</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C41" t="n">
         <v>217</v>
       </c>
       <c r="D41" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E41" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F41" t="n">
-        <v>449.5313</v>
+        <v>3537.1907</v>
       </c>
       <c r="G41" t="n">
-        <v>216.0333333333333</v>
+        <v>215.95</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C42" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D42" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E42" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F42" t="n">
-        <v>2671.549</v>
+        <v>449.5313</v>
       </c>
       <c r="G42" t="n">
-        <v>216.15</v>
+        <v>216.0333333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
+        <v>216</v>
+      </c>
+      <c r="C43" t="n">
         <v>218</v>
-      </c>
-      <c r="C43" t="n">
-        <v>217</v>
       </c>
       <c r="D43" t="n">
         <v>218</v>
       </c>
       <c r="E43" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F43" t="n">
-        <v>13089.7194</v>
+        <v>2671.549</v>
       </c>
       <c r="G43" t="n">
-        <v>216.25</v>
+        <v>216.15</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C44" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D44" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E44" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F44" t="n">
-        <v>1048</v>
+        <v>13089.7194</v>
       </c>
       <c r="G44" t="n">
-        <v>216.45</v>
+        <v>216.25</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>220</v>
       </c>
       <c r="F45" t="n">
-        <v>4.1954</v>
+        <v>1048</v>
       </c>
       <c r="G45" t="n">
-        <v>216.6</v>
+        <v>216.45</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C46" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D46" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E46" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F46" t="n">
-        <v>1043.8046</v>
+        <v>4.1954</v>
       </c>
       <c r="G46" t="n">
-        <v>216.7</v>
+        <v>216.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2011,19 +2011,19 @@
         <v>218</v>
       </c>
       <c r="C47" t="n">
+        <v>217</v>
+      </c>
+      <c r="D47" t="n">
         <v>218</v>
       </c>
-      <c r="D47" t="n">
-        <v>219</v>
-      </c>
       <c r="E47" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F47" t="n">
-        <v>17951.3027</v>
+        <v>1043.8046</v>
       </c>
       <c r="G47" t="n">
-        <v>216.8</v>
+        <v>216.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
+        <v>218</v>
+      </c>
+      <c r="C48" t="n">
+        <v>218</v>
+      </c>
+      <c r="D48" t="n">
         <v>219</v>
       </c>
-      <c r="C48" t="n">
-        <v>221</v>
-      </c>
-      <c r="D48" t="n">
-        <v>221</v>
-      </c>
       <c r="E48" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F48" t="n">
-        <v>3611.1001</v>
+        <v>17951.3027</v>
       </c>
       <c r="G48" t="n">
-        <v>216.95</v>
+        <v>216.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>219</v>
+      </c>
+      <c r="C49" t="n">
         <v>221</v>
       </c>
-      <c r="C49" t="n">
-        <v>224</v>
-      </c>
       <c r="D49" t="n">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E49" t="n">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F49" t="n">
-        <v>19984.8818</v>
+        <v>3611.1001</v>
       </c>
       <c r="G49" t="n">
-        <v>217.15</v>
+        <v>216.95</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>221</v>
+      </c>
+      <c r="C50" t="n">
         <v>224</v>
       </c>
-      <c r="C50" t="n">
-        <v>228</v>
-      </c>
       <c r="D50" t="n">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E50" t="n">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F50" t="n">
-        <v>31374.73811101</v>
+        <v>19984.8818</v>
       </c>
       <c r="G50" t="n">
-        <v>217.4333333333333</v>
+        <v>217.15</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,7 +2148,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C51" t="n">
         <v>228</v>
@@ -2157,13 +2157,13 @@
         <v>228</v>
       </c>
       <c r="E51" t="n">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F51" t="n">
-        <v>3277.07938899</v>
+        <v>31374.73811101</v>
       </c>
       <c r="G51" t="n">
-        <v>217.7</v>
+        <v>217.4333333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C52" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D52" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E52" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F52" t="n">
-        <v>18168.7189</v>
+        <v>3277.07938899</v>
       </c>
       <c r="G52" t="n">
-        <v>218</v>
+        <v>217.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>229</v>
+      </c>
+      <c r="C53" t="n">
         <v>230</v>
       </c>
-      <c r="C53" t="n">
-        <v>235</v>
-      </c>
       <c r="D53" t="n">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E53" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F53" t="n">
-        <v>43993.08944723</v>
+        <v>18168.7189</v>
       </c>
       <c r="G53" t="n">
-        <v>218.3833333333333</v>
+        <v>218</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C54" t="n">
         <v>235</v>
@@ -2262,13 +2262,13 @@
         <v>235</v>
       </c>
       <c r="E54" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F54" t="n">
-        <v>3593.0838</v>
+        <v>43993.08944723</v>
       </c>
       <c r="G54" t="n">
-        <v>218.7833333333333</v>
+        <v>218.3833333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,28 +2288,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>233</v>
+      </c>
+      <c r="C55" t="n">
         <v>235</v>
       </c>
-      <c r="C55" t="n">
-        <v>234</v>
-      </c>
       <c r="D55" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E55" t="n">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F55" t="n">
-        <v>31665.9696</v>
+        <v>3593.0838</v>
       </c>
       <c r="G55" t="n">
-        <v>219.1333333333333</v>
+        <v>218.7833333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2323,28 +2323,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C56" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D56" t="n">
+        <v>237</v>
+      </c>
+      <c r="E56" t="n">
         <v>234</v>
       </c>
-      <c r="E56" t="n">
-        <v>230</v>
-      </c>
       <c r="F56" t="n">
-        <v>19542.2813</v>
+        <v>31665.9696</v>
       </c>
       <c r="G56" t="n">
-        <v>219.4166666666667</v>
+        <v>219.1333333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
+        <v>233</v>
+      </c>
+      <c r="C57" t="n">
         <v>230</v>
       </c>
-      <c r="C57" t="n">
-        <v>227</v>
-      </c>
       <c r="D57" t="n">
+        <v>234</v>
+      </c>
+      <c r="E57" t="n">
         <v>230</v>
       </c>
-      <c r="E57" t="n">
-        <v>227</v>
-      </c>
       <c r="F57" t="n">
-        <v>18444.1365</v>
+        <v>19542.2813</v>
       </c>
       <c r="G57" t="n">
-        <v>219.65</v>
+        <v>219.4166666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,28 +2393,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
+        <v>230</v>
+      </c>
+      <c r="C58" t="n">
         <v>227</v>
       </c>
-      <c r="C58" t="n">
-        <v>228</v>
-      </c>
       <c r="D58" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E58" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F58" t="n">
-        <v>6898.9108</v>
+        <v>18444.1365</v>
       </c>
       <c r="G58" t="n">
-        <v>219.8833333333333</v>
+        <v>219.65</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2428,28 +2428,28 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C59" t="n">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D59" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E59" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F59" t="n">
-        <v>9184.158100000001</v>
+        <v>6898.9108</v>
       </c>
       <c r="G59" t="n">
-        <v>220.0666666666667</v>
+        <v>219.8833333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2463,10 +2463,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C60" t="n">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D60" t="n">
         <v>229</v>
@@ -2475,10 +2475,10 @@
         <v>225</v>
       </c>
       <c r="F60" t="n">
-        <v>27232.4983</v>
+        <v>9184.158100000001</v>
       </c>
       <c r="G60" t="n">
-        <v>220.2833333333333</v>
+        <v>220.0666666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2504,16 +2504,16 @@
         <v>227</v>
       </c>
       <c r="D61" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E61" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F61" t="n">
-        <v>4627.456</v>
+        <v>27232.4983</v>
       </c>
       <c r="G61" t="n">
-        <v>220.4833333333333</v>
+        <v>220.2833333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2536,19 +2536,19 @@
         <v>226</v>
       </c>
       <c r="C62" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D62" t="n">
+        <v>227</v>
+      </c>
+      <c r="E62" t="n">
         <v>226</v>
       </c>
-      <c r="E62" t="n">
-        <v>225</v>
-      </c>
       <c r="F62" t="n">
-        <v>4504.998</v>
+        <v>4627.456</v>
       </c>
       <c r="G62" t="n">
-        <v>220.65</v>
+        <v>220.4833333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C63" t="n">
         <v>225</v>
       </c>
       <c r="D63" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E63" t="n">
         <v>225</v>
       </c>
       <c r="F63" t="n">
-        <v>687.48888888</v>
+        <v>4504.998</v>
       </c>
       <c r="G63" t="n">
-        <v>220.8</v>
+        <v>220.65</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>225</v>
       </c>
       <c r="F64" t="n">
-        <v>725.7155</v>
+        <v>687.48888888</v>
       </c>
       <c r="G64" t="n">
-        <v>220.9666666666667</v>
+        <v>220.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2641,19 +2641,19 @@
         <v>225</v>
       </c>
       <c r="C65" t="n">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D65" t="n">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E65" t="n">
         <v>225</v>
       </c>
       <c r="F65" t="n">
-        <v>9094.591311120001</v>
+        <v>725.7155</v>
       </c>
       <c r="G65" t="n">
-        <v>221.1333333333333</v>
+        <v>220.9666666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
+        <v>225</v>
+      </c>
+      <c r="C66" t="n">
         <v>227</v>
       </c>
-      <c r="C66" t="n">
-        <v>230</v>
-      </c>
       <c r="D66" t="n">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E66" t="n">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F66" t="n">
-        <v>10488.02194739</v>
+        <v>9094.591311120001</v>
       </c>
       <c r="G66" t="n">
-        <v>221.3333333333333</v>
+        <v>221.1333333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,7 +2708,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C67" t="n">
         <v>230</v>
@@ -2717,13 +2717,13 @@
         <v>230</v>
       </c>
       <c r="E67" t="n">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F67" t="n">
-        <v>1376.7565</v>
+        <v>10488.02194739</v>
       </c>
       <c r="G67" t="n">
-        <v>221.6</v>
+        <v>221.3333333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2746,19 +2746,19 @@
         <v>230</v>
       </c>
       <c r="C68" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D68" t="n">
         <v>230</v>
       </c>
       <c r="E68" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F68" t="n">
-        <v>7555.748</v>
+        <v>1376.7565</v>
       </c>
       <c r="G68" t="n">
-        <v>221.7666666666667</v>
+        <v>221.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C69" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D69" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E69" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F69" t="n">
-        <v>55.459</v>
+        <v>7555.748</v>
       </c>
       <c r="G69" t="n">
-        <v>222.0333333333333</v>
+        <v>221.7666666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2816,19 +2816,19 @@
         <v>229</v>
       </c>
       <c r="C70" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D70" t="n">
         <v>229</v>
       </c>
       <c r="E70" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F70" t="n">
-        <v>10000</v>
+        <v>55.459</v>
       </c>
       <c r="G70" t="n">
-        <v>222.2666666666667</v>
+        <v>222.0333333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2851,19 +2851,19 @@
         <v>229</v>
       </c>
       <c r="C71" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D71" t="n">
         <v>229</v>
       </c>
       <c r="E71" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>10000</v>
       </c>
       <c r="G71" t="n">
-        <v>222.5</v>
+        <v>222.2666666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,10 +2895,10 @@
         <v>229</v>
       </c>
       <c r="F72" t="n">
-        <v>246.6145</v>
+        <v>2</v>
       </c>
       <c r="G72" t="n">
-        <v>222.7333333333333</v>
+        <v>222.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C73" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D73" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E73" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F73" t="n">
-        <v>16857.2353</v>
+        <v>246.6145</v>
       </c>
       <c r="G73" t="n">
-        <v>222.95</v>
+        <v>222.7333333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C74" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D74" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E74" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F74" t="n">
-        <v>15781.1913</v>
+        <v>16857.2353</v>
       </c>
       <c r="G74" t="n">
-        <v>223.2</v>
+        <v>222.95</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>229</v>
       </c>
       <c r="F75" t="n">
-        <v>1042.2541</v>
+        <v>15781.1913</v>
       </c>
       <c r="G75" t="n">
-        <v>223.4</v>
+        <v>223.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3026,19 +3026,19 @@
         <v>229</v>
       </c>
       <c r="C76" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D76" t="n">
         <v>229</v>
       </c>
       <c r="E76" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F76" t="n">
-        <v>5630.6159</v>
+        <v>1042.2541</v>
       </c>
       <c r="G76" t="n">
-        <v>223.5666666666667</v>
+        <v>223.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C77" t="n">
         <v>226</v>
       </c>
       <c r="D77" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E77" t="n">
         <v>226</v>
       </c>
       <c r="F77" t="n">
-        <v>3784.47632982</v>
+        <v>5630.6159</v>
       </c>
       <c r="G77" t="n">
-        <v>223.75</v>
+        <v>223.5666666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>228</v>
+      </c>
+      <c r="C78" t="n">
         <v>226</v>
       </c>
-      <c r="C78" t="n">
-        <v>225</v>
-      </c>
       <c r="D78" t="n">
+        <v>228</v>
+      </c>
+      <c r="E78" t="n">
         <v>226</v>
       </c>
-      <c r="E78" t="n">
-        <v>225</v>
-      </c>
       <c r="F78" t="n">
-        <v>18018.25138888</v>
+        <v>3784.47632982</v>
       </c>
       <c r="G78" t="n">
-        <v>223.8833333333333</v>
+        <v>223.75</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C79" t="n">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="D79" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E79" t="n">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="F79" t="n">
-        <v>21859.0739</v>
+        <v>18018.25138888</v>
       </c>
       <c r="G79" t="n">
-        <v>223.9166666666667</v>
+        <v>223.8833333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C80" t="n">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D80" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E80" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F80" t="n">
-        <v>60.1987</v>
+        <v>21859.0739</v>
       </c>
       <c r="G80" t="n">
-        <v>224.0333333333333</v>
+        <v>223.9166666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C81" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D81" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E81" t="n">
         <v>220</v>
       </c>
       <c r="F81" t="n">
-        <v>1970.2307</v>
+        <v>60.1987</v>
       </c>
       <c r="G81" t="n">
-        <v>224.0833333333333</v>
+        <v>224.0333333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3236,19 +3236,19 @@
         <v>223</v>
       </c>
       <c r="C82" t="n">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D82" t="n">
         <v>223</v>
       </c>
       <c r="E82" t="n">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F82" t="n">
-        <v>6</v>
+        <v>1970.2307</v>
       </c>
       <c r="G82" t="n">
-        <v>224.1666666666667</v>
+        <v>224.0833333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C83" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D83" t="n">
         <v>223</v>
       </c>
       <c r="E83" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F83" t="n">
-        <v>4132.0493</v>
+        <v>6</v>
       </c>
       <c r="G83" t="n">
-        <v>224.2166666666667</v>
+        <v>224.1666666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3306,19 +3306,19 @@
         <v>222</v>
       </c>
       <c r="C84" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D84" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E84" t="n">
         <v>222</v>
       </c>
       <c r="F84" t="n">
-        <v>5.6763</v>
+        <v>4132.0493</v>
       </c>
       <c r="G84" t="n">
-        <v>224.2833333333333</v>
+        <v>224.2166666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,7 +3338,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C85" t="n">
         <v>224</v>
@@ -3347,13 +3347,13 @@
         <v>224</v>
       </c>
       <c r="E85" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F85" t="n">
-        <v>3030.3807</v>
+        <v>5.6763</v>
       </c>
       <c r="G85" t="n">
-        <v>224.35</v>
+        <v>224.2833333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C86" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D86" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E86" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>3030.3807</v>
       </c>
       <c r="G86" t="n">
-        <v>224.4333333333333</v>
+        <v>224.35</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C87" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D87" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E87" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F87" t="n">
-        <v>4528.9183</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>224.4666666666667</v>
+        <v>224.4333333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C88" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D88" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E88" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F88" t="n">
-        <v>4175.2343</v>
+        <v>4528.9183</v>
       </c>
       <c r="G88" t="n">
-        <v>224.4833333333333</v>
+        <v>224.4666666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3481,19 +3481,19 @@
         <v>223</v>
       </c>
       <c r="C89" t="n">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D89" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E89" t="n">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F89" t="n">
-        <v>19861.9056</v>
+        <v>4175.2343</v>
       </c>
       <c r="G89" t="n">
-        <v>224.4666666666667</v>
+        <v>224.4833333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C90" t="n">
         <v>221</v>
       </c>
       <c r="D90" t="n">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E90" t="n">
         <v>221</v>
       </c>
       <c r="F90" t="n">
-        <v>562.7921</v>
+        <v>19861.9056</v>
       </c>
       <c r="G90" t="n">
-        <v>224.45</v>
+        <v>224.4666666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C91" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D91" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E91" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F91" t="n">
-        <v>13733.5232</v>
+        <v>562.7921</v>
       </c>
       <c r="G91" t="n">
-        <v>224.4</v>
+        <v>224.45</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C92" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D92" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E92" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F92" t="n">
-        <v>13360.821</v>
+        <v>13733.5232</v>
       </c>
       <c r="G92" t="n">
-        <v>224.3333333333333</v>
+        <v>224.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3621,19 +3621,19 @@
         <v>218</v>
       </c>
       <c r="C93" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D93" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E93" t="n">
         <v>218</v>
       </c>
       <c r="F93" t="n">
-        <v>2263.1167</v>
+        <v>13360.821</v>
       </c>
       <c r="G93" t="n">
-        <v>224.2833333333333</v>
+        <v>224.3333333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,7 +3653,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C94" t="n">
         <v>219</v>
@@ -3665,10 +3665,10 @@
         <v>218</v>
       </c>
       <c r="F94" t="n">
-        <v>4948.40391004</v>
+        <v>2263.1167</v>
       </c>
       <c r="G94" t="n">
-        <v>224.2333333333333</v>
+        <v>224.2833333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>219</v>
       </c>
       <c r="C95" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D95" t="n">
         <v>219</v>
@@ -3700,10 +3700,10 @@
         <v>218</v>
       </c>
       <c r="F95" t="n">
-        <v>13775.4287</v>
+        <v>4948.40391004</v>
       </c>
       <c r="G95" t="n">
-        <v>224.1833333333333</v>
+        <v>224.2333333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>219</v>
+      </c>
+      <c r="C96" t="n">
         <v>218</v>
-      </c>
-      <c r="C96" t="n">
-        <v>219</v>
       </c>
       <c r="D96" t="n">
         <v>219</v>
       </c>
       <c r="E96" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F96" t="n">
-        <v>45781.5958</v>
+        <v>13775.4287</v>
       </c>
       <c r="G96" t="n">
-        <v>224.2</v>
+        <v>224.1833333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C97" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D97" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E97" t="n">
         <v>217</v>
       </c>
       <c r="F97" t="n">
-        <v>8950.6005</v>
+        <v>45781.5958</v>
       </c>
       <c r="G97" t="n">
-        <v>224.15</v>
+        <v>224.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>217</v>
       </c>
       <c r="C98" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D98" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E98" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F98" t="n">
-        <v>9988.742</v>
+        <v>8950.6005</v>
       </c>
       <c r="G98" t="n">
-        <v>224.1333333333333</v>
+        <v>224.15</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>217</v>
+      </c>
+      <c r="C99" t="n">
+        <v>219</v>
+      </c>
+      <c r="D99" t="n">
+        <v>219</v>
+      </c>
+      <c r="E99" t="n">
         <v>216</v>
       </c>
-      <c r="C99" t="n">
-        <v>215</v>
-      </c>
-      <c r="D99" t="n">
-        <v>216</v>
-      </c>
-      <c r="E99" t="n">
-        <v>215</v>
-      </c>
       <c r="F99" t="n">
-        <v>8111.8872</v>
+        <v>9988.742</v>
       </c>
       <c r="G99" t="n">
-        <v>224.0833333333333</v>
+        <v>224.1333333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
+        <v>216</v>
+      </c>
+      <c r="C100" t="n">
         <v>215</v>
       </c>
-      <c r="C100" t="n">
-        <v>210</v>
-      </c>
       <c r="D100" t="n">
+        <v>216</v>
+      </c>
+      <c r="E100" t="n">
         <v>215</v>
       </c>
-      <c r="E100" t="n">
-        <v>210</v>
-      </c>
       <c r="F100" t="n">
-        <v>17305.0062</v>
+        <v>8111.8872</v>
       </c>
       <c r="G100" t="n">
-        <v>223.9666666666667</v>
+        <v>224.0833333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C101" t="n">
         <v>210</v>
       </c>
       <c r="D101" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E101" t="n">
         <v>210</v>
       </c>
       <c r="F101" t="n">
-        <v>6910.1434</v>
+        <v>17305.0062</v>
       </c>
       <c r="G101" t="n">
-        <v>223.85</v>
+        <v>223.9666666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,10 +3933,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
+        <v>211</v>
+      </c>
+      <c r="C102" t="n">
         <v>210</v>
-      </c>
-      <c r="C102" t="n">
-        <v>212</v>
       </c>
       <c r="D102" t="n">
         <v>212</v>
@@ -3945,10 +3945,10 @@
         <v>210</v>
       </c>
       <c r="F102" t="n">
-        <v>14232.2708</v>
+        <v>6910.1434</v>
       </c>
       <c r="G102" t="n">
-        <v>223.75</v>
+        <v>223.85</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C103" t="n">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D103" t="n">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E103" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F103" t="n">
-        <v>5755.7094</v>
+        <v>14232.2708</v>
       </c>
       <c r="G103" t="n">
-        <v>223.7666666666667</v>
+        <v>223.75</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,10 +4003,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
+        <v>213</v>
+      </c>
+      <c r="C104" t="n">
         <v>218</v>
-      </c>
-      <c r="C104" t="n">
-        <v>212</v>
       </c>
       <c r="D104" t="n">
         <v>218</v>
@@ -4015,10 +4015,10 @@
         <v>212</v>
       </c>
       <c r="F104" t="n">
-        <v>2729.5008</v>
+        <v>5755.7094</v>
       </c>
       <c r="G104" t="n">
-        <v>223.6333333333333</v>
+        <v>223.7666666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C105" t="n">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D105" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E105" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F105" t="n">
-        <v>9662.454957989999</v>
+        <v>2729.5008</v>
       </c>
       <c r="G105" t="n">
-        <v>223.6166666666667</v>
+        <v>223.6333333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C106" t="n">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D106" t="n">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E106" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F106" t="n">
-        <v>1.0221</v>
+        <v>9662.454957989999</v>
       </c>
       <c r="G106" t="n">
-        <v>223.5666666666667</v>
+        <v>223.6166666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4111,19 +4111,19 @@
         <v>214</v>
       </c>
       <c r="C107" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D107" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E107" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F107" t="n">
-        <v>54.2152</v>
+        <v>1.0221</v>
       </c>
       <c r="G107" t="n">
-        <v>223.4833333333333</v>
+        <v>223.5666666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C108" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D108" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E108" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F108" t="n">
-        <v>5319.6363</v>
+        <v>54.2152</v>
       </c>
       <c r="G108" t="n">
-        <v>223.3833333333333</v>
+        <v>223.4833333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C109" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D109" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E109" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F109" t="n">
-        <v>3055.175</v>
+        <v>5319.6363</v>
       </c>
       <c r="G109" t="n">
-        <v>223.25</v>
+        <v>223.3833333333333</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C110" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D110" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E110" t="n">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F110" t="n">
-        <v>925.2696999999999</v>
+        <v>3055.175</v>
       </c>
       <c r="G110" t="n">
-        <v>223.0333333333333</v>
+        <v>223.25</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C111" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D111" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E111" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F111" t="n">
-        <v>2</v>
+        <v>925.2696999999999</v>
       </c>
       <c r="G111" t="n">
-        <v>222.8333333333333</v>
+        <v>223.0333333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C112" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D112" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E112" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F112" t="n">
         <v>2</v>
       </c>
       <c r="G112" t="n">
-        <v>222.5833333333333</v>
+        <v>222.8333333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4330,10 +4330,10 @@
         <v>215</v>
       </c>
       <c r="F113" t="n">
-        <v>1.0288</v>
+        <v>2</v>
       </c>
       <c r="G113" t="n">
-        <v>222.25</v>
+        <v>222.5833333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C114" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D114" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E114" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F114" t="n">
-        <v>74.21339999999999</v>
+        <v>1.0288</v>
       </c>
       <c r="G114" t="n">
-        <v>221.8666666666667</v>
+        <v>222.25</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
+        <v>214</v>
+      </c>
+      <c r="C115" t="n">
         <v>212</v>
       </c>
-      <c r="C115" t="n">
+      <c r="D115" t="n">
         <v>214</v>
-      </c>
-      <c r="D115" t="n">
-        <v>215</v>
       </c>
       <c r="E115" t="n">
         <v>212</v>
       </c>
       <c r="F115" t="n">
-        <v>1461.3488</v>
+        <v>74.21339999999999</v>
       </c>
       <c r="G115" t="n">
-        <v>221.5333333333333</v>
+        <v>221.8666666666667</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,7 +4423,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C116" t="n">
         <v>214</v>
@@ -4432,13 +4432,13 @@
         <v>215</v>
       </c>
       <c r="E116" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F116" t="n">
-        <v>618.0277</v>
+        <v>1461.3488</v>
       </c>
       <c r="G116" t="n">
-        <v>221.2666666666667</v>
+        <v>221.5333333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4461,19 +4461,19 @@
         <v>213</v>
       </c>
       <c r="C117" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D117" t="n">
+        <v>215</v>
+      </c>
+      <c r="E117" t="n">
         <v>213</v>
       </c>
-      <c r="E117" t="n">
-        <v>212</v>
-      </c>
       <c r="F117" t="n">
-        <v>9367.477800000001</v>
+        <v>618.0277</v>
       </c>
       <c r="G117" t="n">
-        <v>221.0166666666667</v>
+        <v>221.2666666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4496,19 +4496,19 @@
         <v>213</v>
       </c>
       <c r="C118" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D118" t="n">
         <v>213</v>
       </c>
       <c r="E118" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F118" t="n">
-        <v>10</v>
+        <v>9367.477800000001</v>
       </c>
       <c r="G118" t="n">
-        <v>220.7666666666667</v>
+        <v>221.0166666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C119" t="n">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D119" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E119" t="n">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F119" t="n">
-        <v>923.1862</v>
+        <v>10</v>
       </c>
       <c r="G119" t="n">
-        <v>220.5166666666667</v>
+        <v>220.7666666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>211</v>
+      </c>
+      <c r="C120" t="n">
         <v>210</v>
       </c>
-      <c r="C120" t="n">
-        <v>209</v>
-      </c>
       <c r="D120" t="n">
+        <v>211</v>
+      </c>
+      <c r="E120" t="n">
         <v>210</v>
       </c>
-      <c r="E120" t="n">
-        <v>209</v>
-      </c>
       <c r="F120" t="n">
-        <v>10433.8149</v>
+        <v>923.1862</v>
       </c>
       <c r="G120" t="n">
-        <v>220.2166666666667</v>
+        <v>220.5166666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4601,19 +4601,19 @@
         <v>210</v>
       </c>
       <c r="C121" t="n">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D121" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E121" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F121" t="n">
-        <v>11502.6871</v>
+        <v>10433.8149</v>
       </c>
       <c r="G121" t="n">
-        <v>219.9666666666667</v>
+        <v>220.2166666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,7 +4633,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C122" t="n">
         <v>212</v>
@@ -4642,13 +4642,13 @@
         <v>212</v>
       </c>
       <c r="E122" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F122" t="n">
-        <v>5</v>
+        <v>11502.6871</v>
       </c>
       <c r="G122" t="n">
-        <v>219.75</v>
+        <v>219.9666666666667</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4680,10 +4680,10 @@
         <v>212</v>
       </c>
       <c r="F123" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G123" t="n">
-        <v>219.5333333333333</v>
+        <v>219.75</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C124" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D124" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E124" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F124" t="n">
-        <v>4.9875</v>
+        <v>4</v>
       </c>
       <c r="G124" t="n">
-        <v>219.25</v>
+        <v>219.5333333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4750,10 +4750,10 @@
         <v>208</v>
       </c>
       <c r="F125" t="n">
-        <v>2881.1575</v>
+        <v>4.9875</v>
       </c>
       <c r="G125" t="n">
-        <v>218.9333333333333</v>
+        <v>219.25</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C126" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D126" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E126" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F126" t="n">
-        <v>106.4126</v>
+        <v>2881.1575</v>
       </c>
       <c r="G126" t="n">
-        <v>218.6333333333333</v>
+        <v>218.9333333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,7 +4808,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C127" t="n">
         <v>212</v>
@@ -4817,13 +4817,13 @@
         <v>212</v>
       </c>
       <c r="E127" t="n">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F127" t="n">
-        <v>76.0282</v>
+        <v>106.4126</v>
       </c>
       <c r="G127" t="n">
-        <v>218.3333333333333</v>
+        <v>218.6333333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4855,10 +4855,10 @@
         <v>212</v>
       </c>
       <c r="F128" t="n">
-        <v>10.9764</v>
+        <v>76.0282</v>
       </c>
       <c r="G128" t="n">
-        <v>218.0666666666667</v>
+        <v>218.3333333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4881,19 +4881,19 @@
         <v>212</v>
       </c>
       <c r="C129" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D129" t="n">
         <v>212</v>
       </c>
       <c r="E129" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F129" t="n">
-        <v>7801.7818</v>
+        <v>10.9764</v>
       </c>
       <c r="G129" t="n">
-        <v>217.7333333333333</v>
+        <v>218.0666666666667</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C130" t="n">
         <v>209</v>
       </c>
       <c r="D130" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E130" t="n">
         <v>209</v>
       </c>
       <c r="F130" t="n">
-        <v>4925.8114</v>
+        <v>7801.7818</v>
       </c>
       <c r="G130" t="n">
-        <v>217.4166666666667</v>
+        <v>217.7333333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C131" t="n">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D131" t="n">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E131" t="n">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F131" t="n">
-        <v>625.0765</v>
+        <v>4925.8114</v>
       </c>
       <c r="G131" t="n">
-        <v>217.15</v>
+        <v>217.4166666666667</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
+        <v>212</v>
+      </c>
+      <c r="C132" t="n">
         <v>213</v>
       </c>
-      <c r="C132" t="n">
-        <v>216</v>
-      </c>
       <c r="D132" t="n">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E132" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F132" t="n">
-        <v>8593.9612</v>
+        <v>625.0765</v>
       </c>
       <c r="G132" t="n">
-        <v>216.9333333333333</v>
+        <v>217.15</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5018,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C133" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D133" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E133" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F133" t="n">
-        <v>6927.0417</v>
+        <v>8593.9612</v>
       </c>
       <c r="G133" t="n">
-        <v>216.7166666666667</v>
+        <v>216.9333333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C134" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D134" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E134" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F134" t="n">
-        <v>2.3105</v>
+        <v>6927.0417</v>
       </c>
       <c r="G134" t="n">
-        <v>216.5</v>
+        <v>216.7166666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C135" t="n">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D135" t="n">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E135" t="n">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F135" t="n">
-        <v>25379.6442</v>
+        <v>2.3105</v>
       </c>
       <c r="G135" t="n">
-        <v>216.1666666666667</v>
+        <v>216.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C136" t="n">
         <v>209</v>
       </c>
       <c r="D136" t="n">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E136" t="n">
         <v>209</v>
       </c>
       <c r="F136" t="n">
-        <v>16922.2976</v>
+        <v>25379.6442</v>
       </c>
       <c r="G136" t="n">
-        <v>215.8833333333333</v>
+        <v>216.1666666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5161,19 +5161,19 @@
         <v>209</v>
       </c>
       <c r="C137" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D137" t="n">
         <v>209</v>
       </c>
       <c r="E137" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F137" t="n">
-        <v>5059.0037</v>
+        <v>16922.2976</v>
       </c>
       <c r="G137" t="n">
-        <v>215.5833333333333</v>
+        <v>215.8833333333333</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5196,19 +5196,19 @@
         <v>209</v>
       </c>
       <c r="C138" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D138" t="n">
         <v>209</v>
       </c>
       <c r="E138" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F138" t="n">
-        <v>99</v>
+        <v>5059.0037</v>
       </c>
       <c r="G138" t="n">
-        <v>215.3166666666667</v>
+        <v>215.5833333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5228,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C139" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D139" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E139" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F139" t="n">
-        <v>2138.0125</v>
+        <v>99</v>
       </c>
       <c r="G139" t="n">
-        <v>215.1666666666667</v>
+        <v>215.3166666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C140" t="n">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D140" t="n">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E140" t="n">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F140" t="n">
-        <v>310</v>
+        <v>2138.0125</v>
       </c>
       <c r="G140" t="n">
-        <v>215</v>
+        <v>215.1666666666667</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,22 +5298,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C141" t="n">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D141" t="n">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E141" t="n">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F141" t="n">
-        <v>18100.8368</v>
+        <v>310</v>
       </c>
       <c r="G141" t="n">
-        <v>214.7833333333333</v>
+        <v>215</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5333,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
+        <v>209</v>
+      </c>
+      <c r="C142" t="n">
         <v>207</v>
       </c>
-      <c r="C142" t="n">
-        <v>211</v>
-      </c>
       <c r="D142" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E142" t="n">
         <v>207</v>
       </c>
       <c r="F142" t="n">
-        <v>600</v>
+        <v>18100.8368</v>
       </c>
       <c r="G142" t="n">
-        <v>214.5833333333333</v>
+        <v>214.7833333333333</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,22 +5368,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C143" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D143" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E143" t="n">
         <v>207</v>
       </c>
       <c r="F143" t="n">
-        <v>16201.2654</v>
+        <v>600</v>
       </c>
       <c r="G143" t="n">
-        <v>214.3333333333333</v>
+        <v>214.5833333333333</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C144" t="n">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D144" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E144" t="n">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F144" t="n">
-        <v>2.1009</v>
+        <v>16201.2654</v>
       </c>
       <c r="G144" t="n">
-        <v>214.1166666666667</v>
+        <v>214.3333333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,22 +5438,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C145" t="n">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D145" t="n">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E145" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F145" t="n">
-        <v>2054.9224</v>
+        <v>2.1009</v>
       </c>
       <c r="G145" t="n">
-        <v>213.9333333333333</v>
+        <v>214.1166666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,7 +5473,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C146" t="n">
         <v>213</v>
@@ -5482,13 +5482,13 @@
         <v>213</v>
       </c>
       <c r="E146" t="n">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F146" t="n">
-        <v>7042.3051</v>
+        <v>2054.9224</v>
       </c>
       <c r="G146" t="n">
-        <v>213.7333333333333</v>
+        <v>213.9333333333333</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,7 +5508,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C147" t="n">
         <v>213</v>
@@ -5517,13 +5517,13 @@
         <v>213</v>
       </c>
       <c r="E147" t="n">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F147" t="n">
-        <v>2</v>
+        <v>7042.3051</v>
       </c>
       <c r="G147" t="n">
-        <v>213.55</v>
+        <v>213.7333333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5555,10 +5555,10 @@
         <v>213</v>
       </c>
       <c r="F148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G148" t="n">
-        <v>213.3833333333333</v>
+        <v>213.55</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5578,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C149" t="n">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D149" t="n">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E149" t="n">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F149" t="n">
-        <v>946.7625</v>
+        <v>3</v>
       </c>
       <c r="G149" t="n">
-        <v>213.1666666666667</v>
+        <v>213.3833333333333</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +5613,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C150" t="n">
         <v>208</v>
       </c>
       <c r="D150" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E150" t="n">
         <v>208</v>
       </c>
       <c r="F150" t="n">
-        <v>61.3427</v>
+        <v>946.7625</v>
       </c>
       <c r="G150" t="n">
-        <v>212.95</v>
+        <v>213.1666666666667</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C151" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D151" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E151" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F151" t="n">
-        <v>1889.1949</v>
+        <v>61.3427</v>
       </c>
       <c r="G151" t="n">
-        <v>212.8166666666667</v>
+        <v>212.95</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +5683,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C152" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D152" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E152" t="n">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F152" t="n">
-        <v>27.3707</v>
+        <v>1889.1949</v>
       </c>
       <c r="G152" t="n">
-        <v>212.7</v>
+        <v>212.8166666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5721,19 +5721,19 @@
         <v>211</v>
       </c>
       <c r="C153" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D153" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E153" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F153" t="n">
-        <v>2492.8183</v>
+        <v>27.3707</v>
       </c>
       <c r="G153" t="n">
-        <v>212.5833333333333</v>
+        <v>212.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,7 +5753,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C154" t="n">
         <v>212</v>
@@ -5762,13 +5762,13 @@
         <v>212</v>
       </c>
       <c r="E154" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F154" t="n">
-        <v>36.0959</v>
+        <v>2492.8183</v>
       </c>
       <c r="G154" t="n">
-        <v>212.4666666666667</v>
+        <v>212.5833333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5800,10 +5800,10 @@
         <v>212</v>
       </c>
       <c r="F155" t="n">
-        <v>1113.9314</v>
+        <v>36.0959</v>
       </c>
       <c r="G155" t="n">
-        <v>212.3666666666667</v>
+        <v>212.4666666666667</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5826,19 +5826,19 @@
         <v>212</v>
       </c>
       <c r="C156" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D156" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E156" t="n">
         <v>212</v>
       </c>
       <c r="F156" t="n">
-        <v>4316.33533239</v>
+        <v>1113.9314</v>
       </c>
       <c r="G156" t="n">
-        <v>212.2666666666667</v>
+        <v>212.3666666666667</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,7 +5858,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C157" t="n">
         <v>213</v>
@@ -5867,13 +5867,13 @@
         <v>213</v>
       </c>
       <c r="E157" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F157" t="n">
-        <v>9368.4539</v>
+        <v>4316.33533239</v>
       </c>
       <c r="G157" t="n">
-        <v>212.2</v>
+        <v>212.2666666666667</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5905,10 +5905,10 @@
         <v>213</v>
       </c>
       <c r="F158" t="n">
-        <v>40.8559</v>
+        <v>9368.4539</v>
       </c>
       <c r="G158" t="n">
-        <v>212.1</v>
+        <v>212.2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5931,19 +5931,19 @@
         <v>213</v>
       </c>
       <c r="C159" t="n">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D159" t="n">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E159" t="n">
         <v>213</v>
       </c>
       <c r="F159" t="n">
-        <v>4613.9077</v>
+        <v>40.8559</v>
       </c>
       <c r="G159" t="n">
-        <v>212.1166666666667</v>
+        <v>212.1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +5963,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C160" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D160" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E160" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F160" t="n">
-        <v>446.8112</v>
+        <v>4613.9077</v>
       </c>
       <c r="G160" t="n">
-        <v>212.2</v>
+        <v>212.1166666666667</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6004,16 +6004,16 @@
         <v>215</v>
       </c>
       <c r="D161" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E161" t="n">
         <v>215</v>
       </c>
       <c r="F161" t="n">
-        <v>2658.1621</v>
+        <v>446.8112</v>
       </c>
       <c r="G161" t="n">
-        <v>212.2833333333333</v>
+        <v>212.2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6039,16 +6039,16 @@
         <v>215</v>
       </c>
       <c r="D162" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E162" t="n">
         <v>215</v>
       </c>
       <c r="F162" t="n">
-        <v>24.051</v>
+        <v>2658.1621</v>
       </c>
       <c r="G162" t="n">
-        <v>212.3333333333333</v>
+        <v>212.2833333333333</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6071,19 +6071,19 @@
         <v>215</v>
       </c>
       <c r="C163" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D163" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E163" t="n">
         <v>215</v>
       </c>
       <c r="F163" t="n">
-        <v>1749.67852842</v>
+        <v>24.051</v>
       </c>
       <c r="G163" t="n">
-        <v>212.3</v>
+        <v>212.3333333333333</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6103,22 +6103,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
+        <v>215</v>
+      </c>
+      <c r="C164" t="n">
         <v>216</v>
       </c>
-      <c r="C164" t="n">
-        <v>215</v>
-      </c>
       <c r="D164" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E164" t="n">
         <v>215</v>
       </c>
       <c r="F164" t="n">
-        <v>115.237</v>
+        <v>1749.67852842</v>
       </c>
       <c r="G164" t="n">
-        <v>212.35</v>
+        <v>212.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6138,10 +6138,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
+        <v>216</v>
+      </c>
+      <c r="C165" t="n">
         <v>215</v>
-      </c>
-      <c r="C165" t="n">
-        <v>216</v>
       </c>
       <c r="D165" t="n">
         <v>216</v>
@@ -6150,10 +6150,10 @@
         <v>215</v>
       </c>
       <c r="F165" t="n">
-        <v>113</v>
+        <v>115.237</v>
       </c>
       <c r="G165" t="n">
-        <v>212.3</v>
+        <v>212.35</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6173,22 +6173,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C166" t="n">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D166" t="n">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E166" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F166" t="n">
-        <v>307.0612</v>
+        <v>113</v>
       </c>
       <c r="G166" t="n">
-        <v>212.2833333333333</v>
+        <v>212.3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6208,7 +6208,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C167" t="n">
         <v>213</v>
@@ -6217,10 +6217,10 @@
         <v>213</v>
       </c>
       <c r="E167" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F167" t="n">
-        <v>306.3634</v>
+        <v>307.0612</v>
       </c>
       <c r="G167" t="n">
         <v>212.2833333333333</v>
@@ -6243,22 +6243,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
+        <v>211</v>
+      </c>
+      <c r="C168" t="n">
         <v>213</v>
       </c>
-      <c r="C168" t="n">
-        <v>214</v>
-      </c>
       <c r="D168" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E168" t="n">
         <v>211</v>
       </c>
       <c r="F168" t="n">
-        <v>928.9357</v>
+        <v>306.3634</v>
       </c>
       <c r="G168" t="n">
-        <v>212.2666666666667</v>
+        <v>212.2833333333333</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6278,10 +6278,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
+        <v>213</v>
+      </c>
+      <c r="C169" t="n">
         <v>214</v>
-      </c>
-      <c r="C169" t="n">
-        <v>211</v>
       </c>
       <c r="D169" t="n">
         <v>214</v>
@@ -6290,10 +6290,10 @@
         <v>211</v>
       </c>
       <c r="F169" t="n">
-        <v>977.8001</v>
+        <v>928.9357</v>
       </c>
       <c r="G169" t="n">
-        <v>212.1833333333333</v>
+        <v>212.2666666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6313,22 +6313,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
+        <v>214</v>
+      </c>
+      <c r="C170" t="n">
         <v>211</v>
       </c>
-      <c r="C170" t="n">
-        <v>213</v>
-      </c>
       <c r="D170" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E170" t="n">
         <v>211</v>
       </c>
       <c r="F170" t="n">
-        <v>770.559</v>
+        <v>977.8001</v>
       </c>
       <c r="G170" t="n">
-        <v>212.15</v>
+        <v>212.1833333333333</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6348,22 +6348,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C171" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D171" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E171" t="n">
         <v>211</v>
       </c>
       <c r="F171" t="n">
-        <v>2672.6721</v>
+        <v>770.559</v>
       </c>
       <c r="G171" t="n">
-        <v>212.0833333333333</v>
+        <v>212.15</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6386,19 +6386,19 @@
         <v>212</v>
       </c>
       <c r="C172" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D172" t="n">
         <v>214</v>
       </c>
       <c r="E172" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F172" t="n">
-        <v>40.0587</v>
+        <v>2672.6721</v>
       </c>
       <c r="G172" t="n">
-        <v>212.05</v>
+        <v>212.0833333333333</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C173" t="n">
         <v>213</v>
       </c>
       <c r="D173" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E173" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F173" t="n">
-        <v>60.7379</v>
+        <v>40.0587</v>
       </c>
       <c r="G173" t="n">
-        <v>212.0166666666667</v>
+        <v>212.05</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6456,19 +6456,19 @@
         <v>213</v>
       </c>
       <c r="C174" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D174" t="n">
         <v>213</v>
       </c>
       <c r="E174" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F174" t="n">
-        <v>163.1257</v>
+        <v>60.7379</v>
       </c>
       <c r="G174" t="n">
-        <v>212</v>
+        <v>212.0166666666667</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6488,10 +6488,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
+        <v>213</v>
+      </c>
+      <c r="C175" t="n">
         <v>211</v>
-      </c>
-      <c r="C175" t="n">
-        <v>213</v>
       </c>
       <c r="D175" t="n">
         <v>213</v>
@@ -6500,10 +6500,10 @@
         <v>211</v>
       </c>
       <c r="F175" t="n">
-        <v>4229.3739</v>
+        <v>163.1257</v>
       </c>
       <c r="G175" t="n">
-        <v>211.9833333333333</v>
+        <v>212</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6523,22 +6523,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C176" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D176" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E176" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F176" t="n">
-        <v>30.4872</v>
+        <v>4229.3739</v>
       </c>
       <c r="G176" t="n">
-        <v>211.95</v>
+        <v>211.9833333333333</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6558,22 +6558,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C177" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D177" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E177" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F177" t="n">
-        <v>2194.1807</v>
+        <v>30.4872</v>
       </c>
       <c r="G177" t="n">
-        <v>211.9166666666667</v>
+        <v>211.95</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6596,19 +6596,19 @@
         <v>211</v>
       </c>
       <c r="C178" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D178" t="n">
         <v>211</v>
       </c>
       <c r="E178" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F178" t="n">
-        <v>10949.2587</v>
+        <v>2194.1807</v>
       </c>
       <c r="G178" t="n">
-        <v>211.85</v>
+        <v>211.9166666666667</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6628,22 +6628,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
+        <v>211</v>
+      </c>
+      <c r="C179" t="n">
         <v>209</v>
       </c>
-      <c r="C179" t="n">
-        <v>212</v>
-      </c>
       <c r="D179" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E179" t="n">
         <v>209</v>
       </c>
       <c r="F179" t="n">
-        <v>5413.7691</v>
+        <v>10949.2587</v>
       </c>
       <c r="G179" t="n">
-        <v>211.8833333333333</v>
+        <v>211.85</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6663,22 +6663,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
+        <v>209</v>
+      </c>
+      <c r="C180" t="n">
         <v>212</v>
-      </c>
-      <c r="C180" t="n">
-        <v>210</v>
       </c>
       <c r="D180" t="n">
         <v>212</v>
       </c>
       <c r="E180" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F180" t="n">
-        <v>1911.3393</v>
+        <v>5413.7691</v>
       </c>
       <c r="G180" t="n">
-        <v>211.9</v>
+        <v>211.8833333333333</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6701,16 +6701,16 @@
         <v>212</v>
       </c>
       <c r="C181" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D181" t="n">
         <v>212</v>
       </c>
       <c r="E181" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F181" t="n">
-        <v>13</v>
+        <v>1911.3393</v>
       </c>
       <c r="G181" t="n">
         <v>211.9</v>
@@ -6733,22 +6733,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C182" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D182" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E182" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F182" t="n">
-        <v>777.2532</v>
+        <v>13</v>
       </c>
       <c r="G182" t="n">
-        <v>211.8666666666667</v>
+        <v>211.9</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6768,7 +6768,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C183" t="n">
         <v>210</v>
@@ -6777,13 +6777,13 @@
         <v>210</v>
       </c>
       <c r="E183" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F183" t="n">
-        <v>24775.9287</v>
+        <v>777.2532</v>
       </c>
       <c r="G183" t="n">
-        <v>211.8333333333333</v>
+        <v>211.8666666666667</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6803,7 +6803,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C184" t="n">
         <v>210</v>
@@ -6815,10 +6815,10 @@
         <v>207</v>
       </c>
       <c r="F184" t="n">
-        <v>687.8719</v>
+        <v>24775.9287</v>
       </c>
       <c r="G184" t="n">
-        <v>211.8666666666667</v>
+        <v>211.8333333333333</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6838,22 +6838,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C185" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D185" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E185" t="n">
         <v>207</v>
       </c>
       <c r="F185" t="n">
-        <v>1702.1195</v>
+        <v>687.8719</v>
       </c>
       <c r="G185" t="n">
-        <v>211.85</v>
+        <v>211.8666666666667</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6873,22 +6873,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C186" t="n">
         <v>207</v>
       </c>
       <c r="D186" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E186" t="n">
         <v>207</v>
       </c>
       <c r="F186" t="n">
-        <v>61.5555</v>
+        <v>1702.1195</v>
       </c>
       <c r="G186" t="n">
-        <v>211.7666666666667</v>
+        <v>211.85</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6908,22 +6908,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C187" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D187" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E187" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F187" t="n">
-        <v>7.5598</v>
+        <v>61.5555</v>
       </c>
       <c r="G187" t="n">
-        <v>211.7166666666667</v>
+        <v>211.7666666666667</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6943,7 +6943,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C188" t="n">
         <v>209</v>
@@ -6952,13 +6952,13 @@
         <v>209</v>
       </c>
       <c r="E188" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F188" t="n">
-        <v>7342.2253</v>
+        <v>7.5598</v>
       </c>
       <c r="G188" t="n">
-        <v>211.6666666666667</v>
+        <v>211.7166666666667</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6981,19 +6981,19 @@
         <v>207</v>
       </c>
       <c r="C189" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D189" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E189" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F189" t="n">
-        <v>5765.7996</v>
+        <v>7342.2253</v>
       </c>
       <c r="G189" t="n">
-        <v>211.6166666666667</v>
+        <v>211.6666666666667</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7013,22 +7013,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C190" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D190" t="n">
         <v>208</v>
       </c>
       <c r="E190" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F190" t="n">
-        <v>13</v>
+        <v>5765.7996</v>
       </c>
       <c r="G190" t="n">
-        <v>211.6</v>
+        <v>211.6166666666667</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7048,7 +7048,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C191" t="n">
         <v>208</v>
@@ -7057,13 +7057,13 @@
         <v>208</v>
       </c>
       <c r="E191" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F191" t="n">
-        <v>1366.9443</v>
+        <v>13</v>
       </c>
       <c r="G191" t="n">
-        <v>211.5166666666667</v>
+        <v>211.6</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7083,7 +7083,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C192" t="n">
         <v>208</v>
@@ -7095,10 +7095,10 @@
         <v>206</v>
       </c>
       <c r="F192" t="n">
-        <v>2819.092</v>
+        <v>1366.9443</v>
       </c>
       <c r="G192" t="n">
-        <v>211.3833333333333</v>
+        <v>211.5166666666667</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7127,13 +7127,13 @@
         <v>208</v>
       </c>
       <c r="E193" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F193" t="n">
-        <v>878.5336</v>
+        <v>2819.092</v>
       </c>
       <c r="G193" t="n">
-        <v>211.2333333333333</v>
+        <v>211.3833333333333</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7153,22 +7153,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C194" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D194" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E194" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F194" t="n">
-        <v>427.0737</v>
+        <v>878.5336</v>
       </c>
       <c r="G194" t="n">
-        <v>211.0666666666667</v>
+        <v>211.2333333333333</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C195" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D195" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E195" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F195" t="n">
-        <v>32323.546</v>
+        <v>427.0737</v>
       </c>
       <c r="G195" t="n">
-        <v>210.9833333333333</v>
+        <v>211.0666666666667</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7223,22 +7223,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C196" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D196" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E196" t="n">
         <v>204</v>
       </c>
       <c r="F196" t="n">
-        <v>7664.3078</v>
+        <v>32323.546</v>
       </c>
       <c r="G196" t="n">
-        <v>210.9166666666667</v>
+        <v>210.9833333333333</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7267,13 +7267,13 @@
         <v>205</v>
       </c>
       <c r="E197" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F197" t="n">
-        <v>4000</v>
+        <v>7664.3078</v>
       </c>
       <c r="G197" t="n">
-        <v>210.8666666666667</v>
+        <v>210.9166666666667</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7293,22 +7293,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C198" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D198" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E198" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F198" t="n">
-        <v>2866.0857</v>
+        <v>4000</v>
       </c>
       <c r="G198" t="n">
-        <v>210.7833333333333</v>
+        <v>210.8666666666667</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7328,35 +7328,31 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C199" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D199" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E199" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F199" t="n">
-        <v>166619.6527</v>
+        <v>2866.0857</v>
       </c>
       <c r="G199" t="n">
-        <v>210.7333333333333</v>
+        <v>210.7833333333333</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>204</v>
-      </c>
-      <c r="K199" t="n">
-        <v>204</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
@@ -7376,13 +7372,13 @@
         <v>205</v>
       </c>
       <c r="E200" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F200" t="n">
-        <v>557914.2661</v>
+        <v>166619.6527</v>
       </c>
       <c r="G200" t="n">
-        <v>210.5833333333333</v>
+        <v>210.7333333333333</v>
       </c>
       <c r="H200" t="n">
         <v>1</v>
@@ -7391,59 +7387,55 @@
         <v>0</v>
       </c>
       <c r="J200" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K200" t="n">
         <v>204</v>
       </c>
-      <c r="L200" t="inlineStr">
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>205</v>
+      </c>
+      <c r="C201" t="n">
+        <v>205</v>
+      </c>
+      <c r="D201" t="n">
+        <v>205</v>
+      </c>
+      <c r="E201" t="n">
+        <v>203</v>
+      </c>
+      <c r="F201" t="n">
+        <v>557914.2661</v>
+      </c>
+      <c r="G201" t="n">
+        <v>210.5833333333333</v>
+      </c>
+      <c r="H201" t="n">
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>205</v>
+      </c>
+      <c r="K201" t="n">
+        <v>204</v>
+      </c>
+      <c r="L201" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>205</v>
-      </c>
-      <c r="C201" t="n">
-        <v>205</v>
-      </c>
-      <c r="D201" t="n">
-        <v>205</v>
-      </c>
-      <c r="E201" t="n">
-        <v>205</v>
-      </c>
-      <c r="F201" t="n">
-        <v>1477208.6527</v>
-      </c>
-      <c r="G201" t="n">
-        <v>210.55</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="n">
-        <v>205</v>
-      </c>
-      <c r="K201" t="n">
-        <v>204</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7453,22 +7445,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C202" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D202" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E202" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F202" t="n">
-        <v>610269.7572</v>
+        <v>1477208.6527</v>
       </c>
       <c r="G202" t="n">
-        <v>210.4666666666667</v>
+        <v>210.55</v>
       </c>
       <c r="H202" t="n">
         <v>1</v>
@@ -7508,10 +7500,10 @@
         <v>206</v>
       </c>
       <c r="F203" t="n">
-        <v>1280000</v>
+        <v>610269.7572</v>
       </c>
       <c r="G203" t="n">
-        <v>210.45</v>
+        <v>210.4666666666667</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7549,10 +7541,10 @@
         <v>206</v>
       </c>
       <c r="F204" t="n">
-        <v>1131073.8164</v>
+        <v>1280000</v>
       </c>
       <c r="G204" t="n">
-        <v>210.3666666666667</v>
+        <v>210.45</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7590,10 +7582,10 @@
         <v>206</v>
       </c>
       <c r="F205" t="n">
-        <v>1290000</v>
+        <v>1131073.8164</v>
       </c>
       <c r="G205" t="n">
-        <v>210.25</v>
+        <v>210.3666666666667</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7631,10 +7623,10 @@
         <v>206</v>
       </c>
       <c r="F206" t="n">
-        <v>900967.3088</v>
+        <v>1290000</v>
       </c>
       <c r="G206" t="n">
-        <v>210.1333333333333</v>
+        <v>210.25</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7672,10 +7664,10 @@
         <v>206</v>
       </c>
       <c r="F207" t="n">
-        <v>636707</v>
+        <v>900967.3088</v>
       </c>
       <c r="G207" t="n">
-        <v>210.0166666666667</v>
+        <v>210.1333333333333</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7710,13 +7702,13 @@
         <v>206</v>
       </c>
       <c r="E208" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F208" t="n">
-        <v>857030.6529</v>
+        <v>636707</v>
       </c>
       <c r="G208" t="n">
-        <v>209.9</v>
+        <v>210.0166666666667</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7751,13 +7743,13 @@
         <v>206</v>
       </c>
       <c r="E209" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F209" t="n">
-        <v>857740</v>
+        <v>857030.6529</v>
       </c>
       <c r="G209" t="n">
-        <v>209.8666666666667</v>
+        <v>209.9</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7795,10 +7787,10 @@
         <v>206</v>
       </c>
       <c r="F210" t="n">
-        <v>847843</v>
+        <v>857740</v>
       </c>
       <c r="G210" t="n">
-        <v>209.8333333333333</v>
+        <v>209.8666666666667</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7830,16 +7822,16 @@
         <v>206</v>
       </c>
       <c r="D211" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E211" t="n">
         <v>206</v>
       </c>
       <c r="F211" t="n">
-        <v>849604.4036</v>
+        <v>847843</v>
       </c>
       <c r="G211" t="n">
-        <v>209.7333333333333</v>
+        <v>209.8333333333333</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7871,16 +7863,16 @@
         <v>206</v>
       </c>
       <c r="D212" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E212" t="n">
         <v>206</v>
       </c>
       <c r="F212" t="n">
-        <v>626502.5326</v>
+        <v>849604.4036</v>
       </c>
       <c r="G212" t="n">
-        <v>209.65</v>
+        <v>209.7333333333333</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7912,16 +7904,16 @@
         <v>206</v>
       </c>
       <c r="D213" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E213" t="n">
         <v>206</v>
       </c>
       <c r="F213" t="n">
-        <v>783957.8316</v>
+        <v>626502.5326</v>
       </c>
       <c r="G213" t="n">
-        <v>209.55</v>
+        <v>209.65</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7947,22 +7939,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C214" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D214" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E214" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F214" t="n">
-        <v>149912.4681</v>
+        <v>783957.8316</v>
       </c>
       <c r="G214" t="n">
-        <v>209.4333333333333</v>
+        <v>209.55</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7991,19 +7983,19 @@
         <v>205</v>
       </c>
       <c r="C215" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D215" t="n">
         <v>205</v>
       </c>
       <c r="E215" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F215" t="n">
-        <v>6373.9222</v>
+        <v>149912.4681</v>
       </c>
       <c r="G215" t="n">
-        <v>209.3</v>
+        <v>209.4333333333333</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8032,19 +8024,19 @@
         <v>205</v>
       </c>
       <c r="C216" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D216" t="n">
         <v>205</v>
       </c>
       <c r="E216" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F216" t="n">
-        <v>108.4783</v>
+        <v>6373.9222</v>
       </c>
       <c r="G216" t="n">
-        <v>209.1666666666667</v>
+        <v>209.3</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8070,22 +8062,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C217" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D217" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E217" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F217" t="n">
-        <v>997.5</v>
+        <v>108.4783</v>
       </c>
       <c r="G217" t="n">
-        <v>209</v>
+        <v>209.1666666666667</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8111,22 +8103,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C218" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D218" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E218" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F218" t="n">
-        <v>1</v>
+        <v>997.5</v>
       </c>
       <c r="G218" t="n">
-        <v>208.8666666666667</v>
+        <v>209</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8152,22 +8144,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C219" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D219" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E219" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F219" t="n">
-        <v>4002.5</v>
+        <v>1</v>
       </c>
       <c r="G219" t="n">
-        <v>208.65</v>
+        <v>208.8666666666667</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8193,22 +8185,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C220" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D220" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E220" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F220" t="n">
-        <v>2883.5314</v>
+        <v>4002.5</v>
       </c>
       <c r="G220" t="n">
-        <v>208.4333333333333</v>
+        <v>208.65</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8234,22 +8226,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C221" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D221" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E221" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F221" t="n">
-        <v>50</v>
+        <v>2883.5314</v>
       </c>
       <c r="G221" t="n">
-        <v>208.25</v>
+        <v>208.4333333333333</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8287,10 +8279,10 @@
         <v>204</v>
       </c>
       <c r="F222" t="n">
-        <v>7.5</v>
+        <v>50</v>
       </c>
       <c r="G222" t="n">
-        <v>208.0666666666667</v>
+        <v>208.25</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8328,10 +8320,10 @@
         <v>204</v>
       </c>
       <c r="F223" t="n">
-        <v>15972.4398</v>
+        <v>7.5</v>
       </c>
       <c r="G223" t="n">
-        <v>207.8666666666667</v>
+        <v>208.0666666666667</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8357,30 +8349,32 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C224" t="n">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D224" t="n">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E224" t="n">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F224" t="n">
-        <v>1</v>
+        <v>15972.4398</v>
       </c>
       <c r="G224" t="n">
-        <v>207.7333333333333</v>
+        <v>207.8666666666667</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>204</v>
+      </c>
       <c r="K224" t="n">
         <v>204</v>
       </c>
@@ -8398,30 +8392,32 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C225" t="n">
+        <v>207</v>
+      </c>
+      <c r="D225" t="n">
+        <v>207</v>
+      </c>
+      <c r="E225" t="n">
+        <v>207</v>
+      </c>
+      <c r="F225" t="n">
+        <v>1</v>
+      </c>
+      <c r="G225" t="n">
+        <v>207.7333333333333</v>
+      </c>
+      <c r="H225" t="n">
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
         <v>204</v>
       </c>
-      <c r="D225" t="n">
-        <v>205</v>
-      </c>
-      <c r="E225" t="n">
-        <v>204</v>
-      </c>
-      <c r="F225" t="n">
-        <v>4280.5021</v>
-      </c>
-      <c r="G225" t="n">
-        <v>207.5333333333333</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
       <c r="K225" t="n">
         <v>204</v>
       </c>
@@ -8439,22 +8435,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C226" t="n">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D226" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E226" t="n">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F226" t="n">
-        <v>38.8067</v>
+        <v>4280.5021</v>
       </c>
       <c r="G226" t="n">
-        <v>207.4333333333333</v>
+        <v>207.5333333333333</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8480,22 +8476,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C227" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D227" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E227" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F227" t="n">
-        <v>190.2055</v>
+        <v>38.8067</v>
       </c>
       <c r="G227" t="n">
-        <v>207.3</v>
+        <v>207.4333333333333</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8533,18 +8529,20 @@
         <v>205</v>
       </c>
       <c r="F228" t="n">
-        <v>533.062</v>
+        <v>190.2055</v>
       </c>
       <c r="G228" t="n">
-        <v>207.15</v>
+        <v>207.3</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>207</v>
+      </c>
       <c r="K228" t="n">
         <v>204</v>
       </c>
@@ -8574,10 +8572,10 @@
         <v>205</v>
       </c>
       <c r="F229" t="n">
-        <v>2030.6711</v>
+        <v>533.062</v>
       </c>
       <c r="G229" t="n">
-        <v>207.05</v>
+        <v>207.15</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8603,30 +8601,32 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C230" t="n">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D230" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E230" t="n">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F230" t="n">
-        <v>80224.71859999999</v>
+        <v>2030.6711</v>
       </c>
       <c r="G230" t="n">
-        <v>206.85</v>
+        <v>207.05</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>205</v>
+      </c>
       <c r="K230" t="n">
         <v>204</v>
       </c>
@@ -8644,22 +8644,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C231" t="n">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D231" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E231" t="n">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F231" t="n">
-        <v>1</v>
+        <v>80224.71859999999</v>
       </c>
       <c r="G231" t="n">
-        <v>206.75</v>
+        <v>206.85</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8685,22 +8685,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C232" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D232" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E232" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F232" t="n">
-        <v>316.0436</v>
+        <v>1</v>
       </c>
       <c r="G232" t="n">
-        <v>206.6166666666667</v>
+        <v>206.75</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8738,10 +8738,10 @@
         <v>205</v>
       </c>
       <c r="F233" t="n">
-        <v>2610.3073</v>
+        <v>316.0436</v>
       </c>
       <c r="G233" t="n">
-        <v>206.4833333333333</v>
+        <v>206.6166666666667</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8779,10 +8779,10 @@
         <v>205</v>
       </c>
       <c r="F234" t="n">
-        <v>1168.9784</v>
+        <v>2610.3073</v>
       </c>
       <c r="G234" t="n">
-        <v>206.3833333333333</v>
+        <v>206.4833333333333</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8808,22 +8808,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C235" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D235" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E235" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F235" t="n">
-        <v>558.99</v>
+        <v>1168.9784</v>
       </c>
       <c r="G235" t="n">
-        <v>206.2666666666667</v>
+        <v>206.3833333333333</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8849,22 +8849,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C236" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D236" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E236" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F236" t="n">
-        <v>1</v>
+        <v>558.99</v>
       </c>
       <c r="G236" t="n">
-        <v>206.1833333333333</v>
+        <v>206.2666666666667</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8893,19 +8893,19 @@
         <v>207</v>
       </c>
       <c r="C237" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D237" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E237" t="n">
         <v>207</v>
       </c>
       <c r="F237" t="n">
-        <v>4920.944</v>
+        <v>1</v>
       </c>
       <c r="G237" t="n">
-        <v>206.15</v>
+        <v>206.1833333333333</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8931,7 +8931,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C238" t="n">
         <v>208</v>
@@ -8940,13 +8940,13 @@
         <v>208</v>
       </c>
       <c r="E238" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F238" t="n">
-        <v>888.7619</v>
+        <v>4920.944</v>
       </c>
       <c r="G238" t="n">
-        <v>206.1333333333333</v>
+        <v>206.15</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8972,19 +8972,19 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C239" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D239" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E239" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F239" t="n">
-        <v>552.2075</v>
+        <v>888.7619</v>
       </c>
       <c r="G239" t="n">
         <v>206.1333333333333</v>
@@ -9013,22 +9013,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C240" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D240" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E240" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F240" t="n">
-        <v>1</v>
+        <v>552.2075</v>
       </c>
       <c r="G240" t="n">
-        <v>206.2</v>
+        <v>206.1333333333333</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9054,19 +9054,19 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C241" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D241" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E241" t="n">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F241" t="n">
-        <v>2158</v>
+        <v>1</v>
       </c>
       <c r="G241" t="n">
         <v>206.2</v>
@@ -9098,19 +9098,19 @@
         <v>211</v>
       </c>
       <c r="C242" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D242" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E242" t="n">
         <v>211</v>
       </c>
       <c r="F242" t="n">
-        <v>3693</v>
+        <v>2158</v>
       </c>
       <c r="G242" t="n">
-        <v>206.2166666666667</v>
+        <v>206.2</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9148,10 +9148,10 @@
         <v>211</v>
       </c>
       <c r="F243" t="n">
-        <v>289.2654</v>
+        <v>3693</v>
       </c>
       <c r="G243" t="n">
-        <v>206.2333333333333</v>
+        <v>206.2166666666667</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9177,19 +9177,19 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C244" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D244" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E244" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F244" t="n">
-        <v>7.9571</v>
+        <v>289.2654</v>
       </c>
       <c r="G244" t="n">
         <v>206.2333333333333</v>
@@ -9218,19 +9218,19 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C245" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D245" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E245" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F245" t="n">
-        <v>2171.5432</v>
+        <v>7.9571</v>
       </c>
       <c r="G245" t="n">
         <v>206.2333333333333</v>
@@ -9259,22 +9259,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C246" t="n">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D246" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E246" t="n">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F246" t="n">
-        <v>1</v>
+        <v>2171.5432</v>
       </c>
       <c r="G246" t="n">
-        <v>206.3</v>
+        <v>206.2333333333333</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9303,19 +9303,19 @@
         <v>211</v>
       </c>
       <c r="C247" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D247" t="n">
         <v>211</v>
       </c>
       <c r="E247" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F247" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G247" t="n">
-        <v>206.3166666666667</v>
+        <v>206.3</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9341,19 +9341,19 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
+        <v>211</v>
+      </c>
+      <c r="C248" t="n">
         <v>210</v>
       </c>
-      <c r="C248" t="n">
-        <v>209</v>
-      </c>
       <c r="D248" t="n">
+        <v>211</v>
+      </c>
+      <c r="E248" t="n">
         <v>210</v>
       </c>
-      <c r="E248" t="n">
-        <v>209</v>
-      </c>
       <c r="F248" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G248" t="n">
         <v>206.3166666666667</v>
@@ -9382,22 +9382,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C249" t="n">
         <v>209</v>
       </c>
       <c r="D249" t="n">
+        <v>210</v>
+      </c>
+      <c r="E249" t="n">
         <v>209</v>
       </c>
-      <c r="E249" t="n">
-        <v>207</v>
-      </c>
       <c r="F249" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G249" t="n">
-        <v>206.3666666666667</v>
+        <v>206.3166666666667</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9426,19 +9426,19 @@
         <v>207</v>
       </c>
       <c r="C250" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D250" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E250" t="n">
         <v>207</v>
       </c>
       <c r="F250" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G250" t="n">
-        <v>206.35</v>
+        <v>206.3666666666667</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9464,22 +9464,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C251" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D251" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E251" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G251" t="n">
-        <v>206.3666666666667</v>
+        <v>206.35</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9505,22 +9505,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C252" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D252" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E252" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F252" t="n">
-        <v>389.0855</v>
+        <v>1</v>
       </c>
       <c r="G252" t="n">
-        <v>206.35</v>
+        <v>206.3666666666667</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9549,16 +9549,16 @@
         <v>208</v>
       </c>
       <c r="C253" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D253" t="n">
         <v>208</v>
       </c>
       <c r="E253" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F253" t="n">
-        <v>1</v>
+        <v>389.0855</v>
       </c>
       <c r="G253" t="n">
         <v>206.35</v>
@@ -9582,6 +9582,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>208</v>
+      </c>
+      <c r="C254" t="n">
+        <v>208</v>
+      </c>
+      <c r="D254" t="n">
+        <v>208</v>
+      </c>
+      <c r="E254" t="n">
+        <v>208</v>
+      </c>
+      <c r="F254" t="n">
+        <v>1</v>
+      </c>
+      <c r="G254" t="n">
+        <v>206.35</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>204</v>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M254" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-11 BackTest STEEM.xlsx
+++ b/BackTest/2019-10-11 BackTest STEEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N322"/>
+  <dimension ref="A1:M322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>649120.1234636103</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,24 +484,15 @@
         <v>649118.1234636103</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>211</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,24 +517,19 @@
         <v>648248.3979636104</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="J4" t="n">
         <v>210</v>
       </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,24 +554,23 @@
         <v>648249.5179636104</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="J5" t="n">
-        <v>209</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>210</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,24 +595,23 @@
         <v>648249.5179636104</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="J6" t="n">
-        <v>211</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>210</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,24 +636,15 @@
         <v>648249.5179636104</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>211</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -702,24 +669,19 @@
         <v>648249.5179636104</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="J8" t="n">
         <v>211</v>
       </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -744,24 +706,23 @@
         <v>643246.8771636103</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="J9" t="n">
         <v>211</v>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -786,24 +747,23 @@
         <v>650915.4486636103</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="J10" t="n">
-        <v>210</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>211</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -828,24 +788,21 @@
         <v>647650.7417636103</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>212</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>211</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -870,24 +827,21 @@
         <v>647650.7417636103</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>210</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>211</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -914,20 +868,19 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>211</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -954,20 +907,19 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>211</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -994,20 +946,19 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>211</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1034,20 +985,19 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>211</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1074,20 +1024,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>211</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1114,20 +1063,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>211</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1154,20 +1102,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>211</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1194,20 +1141,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>211</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1234,20 +1180,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>211</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1274,20 +1219,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>211</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1314,20 +1258,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>211</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1354,20 +1297,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>211</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1394,20 +1336,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>211</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1434,20 +1375,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>211</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1474,20 +1414,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>211</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1514,20 +1453,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>211</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1554,20 +1492,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>211</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1594,20 +1531,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>211</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1634,20 +1570,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>211</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1674,20 +1609,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>211</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1714,20 +1648,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>211</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1754,20 +1687,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>211</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1794,20 +1726,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>211</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1834,20 +1765,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>211</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1874,20 +1804,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>211</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1914,20 +1843,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>211</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1954,20 +1882,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>211</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1994,20 +1921,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>211</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2034,20 +1960,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>211</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2074,20 +1999,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>211</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2114,20 +2038,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>211</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2154,20 +2077,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>211</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2194,20 +2116,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>211</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2234,20 +2155,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>211</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2274,20 +2194,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>211</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2314,20 +2233,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>211</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2354,20 +2272,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>211</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2394,20 +2311,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>211</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2434,20 +2350,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>211</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2474,20 +2389,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>211</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2514,20 +2428,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>211</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2554,20 +2467,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>211</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2594,20 +2506,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>211</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2634,20 +2545,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>211</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2674,20 +2584,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>211</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2714,20 +2623,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>211</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2754,20 +2662,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>211</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2794,20 +2701,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>211</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2834,20 +2740,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>211</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2874,20 +2779,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>211</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2914,20 +2818,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>211</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2954,20 +2857,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>211</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2994,20 +2896,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>211</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3034,20 +2935,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>211</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3074,20 +2974,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>211</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3114,20 +3013,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>211</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3154,20 +3052,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>211</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3194,20 +3091,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>211</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3234,20 +3130,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>211</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3274,20 +3169,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>211</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3314,20 +3208,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>211</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3354,20 +3247,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>211</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3394,20 +3286,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>211</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3434,20 +3325,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>211</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3474,20 +3364,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>211</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3514,20 +3403,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>211</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3554,20 +3442,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>211</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3594,20 +3481,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>211</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3634,20 +3520,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>211</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3674,20 +3559,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>211</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3714,20 +3598,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>211</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3752,22 +3635,21 @@
         <v>690452.7454847306</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>211</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1.037654028436019</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3792,22 +3674,15 @@
         <v>690452.7454847306</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3834,20 +3709,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3872,22 +3740,15 @@
         <v>696191.8017847306</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3912,22 +3773,15 @@
         <v>696191.8017847306</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3952,22 +3806,15 @@
         <v>696191.8017847306</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3992,22 +3839,15 @@
         <v>713194.7993847306</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4032,22 +3872,15 @@
         <v>704845.3492847306</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4072,22 +3905,15 @@
         <v>704845.3492847306</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4112,22 +3938,15 @@
         <v>704845.3492847306</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4152,22 +3971,15 @@
         <v>702381.8696847307</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4194,20 +4006,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4232,22 +4037,15 @@
         <v>706401.2318847306</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4274,20 +4072,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4314,20 +4105,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4354,20 +4138,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4394,20 +4171,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4434,20 +4204,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4474,20 +4237,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4514,20 +4270,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4554,20 +4303,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4594,20 +4336,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4634,20 +4369,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4674,20 +4402,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4714,20 +4435,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4754,20 +4468,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4792,22 +4499,15 @@
         <v>749622.3374957407</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4832,22 +4532,15 @@
         <v>767791.0563957407</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4872,20 +4565,15 @@
         <v>811784.1458429707</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L112" t="n">
+        <v>1</v>
       </c>
       <c r="M112" t="inlineStr"/>
-      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4910,18 +4598,15 @@
         <v>811784.1458429707</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4946,18 +4631,15 @@
         <v>780118.1762429707</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4982,18 +4664,15 @@
         <v>760575.8949429707</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5018,18 +4697,15 @@
         <v>742131.7584429707</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5056,16 +4732,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5092,16 +4765,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5128,16 +4798,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5164,16 +4831,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5200,16 +4864,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5236,16 +4897,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5270,18 +4928,15 @@
         <v>762574.0114429706</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5308,16 +4963,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5344,16 +4996,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5380,16 +5029,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5416,16 +5062,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5452,16 +5095,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5488,16 +5128,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5524,16 +5161,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5560,16 +5194,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5596,16 +5227,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5630,18 +5258,15 @@
         <v>765734.3797014806</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5666,18 +5291,15 @@
         <v>765734.3797014806</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5702,18 +5324,15 @@
         <v>760103.7638014806</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5740,16 +5359,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5776,16 +5392,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5810,18 +5423,15 @@
         <v>720226.4385126007</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5846,18 +5456,15 @@
         <v>720286.6372126007</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5882,18 +5489,15 @@
         <v>718316.4065126007</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5918,18 +5522,15 @@
         <v>718322.4065126007</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5954,18 +5555,15 @@
         <v>714190.3572126008</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5990,18 +5588,15 @@
         <v>714196.0335126008</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6026,18 +5621,15 @@
         <v>714196.0335126008</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6064,16 +5656,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6100,16 +5689,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6136,16 +5722,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6172,16 +5755,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6208,16 +5788,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6244,16 +5821,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6280,16 +5854,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6314,18 +5885,15 @@
         <v>660799.7478126008</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6350,18 +5918,15 @@
         <v>660799.7478126008</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6386,18 +5951,15 @@
         <v>647024.3191126008</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6422,18 +5984,15 @@
         <v>692805.9149126008</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6458,18 +6017,15 @@
         <v>683855.3144126008</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6494,18 +6050,15 @@
         <v>693844.0564126008</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6530,18 +6083,15 @@
         <v>685732.1692126008</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6566,18 +6116,15 @@
         <v>668427.1630126009</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6604,16 +6151,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6640,16 +6184,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6676,16 +6217,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6712,16 +6250,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6748,16 +6283,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6784,16 +6316,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6820,16 +6349,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6856,16 +6382,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6892,16 +6415,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6928,16 +6448,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6964,16 +6481,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7000,16 +6514,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7036,16 +6547,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7072,16 +6580,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7108,16 +6613,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7144,16 +6646,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7180,16 +6679,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7216,16 +6712,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7252,16 +6745,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7288,16 +6778,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7324,16 +6811,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7360,16 +6844,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7396,16 +6877,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7432,16 +6910,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7468,16 +6943,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7504,16 +6976,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7540,16 +7009,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7576,16 +7042,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7612,16 +7075,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7648,16 +7108,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7684,16 +7141,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7720,16 +7174,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7756,16 +7207,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7792,16 +7240,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7828,16 +7273,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7864,16 +7306,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7900,16 +7339,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7936,16 +7372,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7972,16 +7405,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8008,16 +7438,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8044,16 +7471,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8080,16 +7504,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8116,16 +7537,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8152,16 +7570,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8188,16 +7603,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8224,16 +7636,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8260,16 +7669,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8296,16 +7702,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8332,16 +7735,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8368,16 +7768,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8404,16 +7801,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8440,16 +7834,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8476,16 +7867,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8512,16 +7900,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8548,16 +7933,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8584,16 +7966,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8620,16 +7999,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8656,16 +8032,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8692,16 +8065,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8728,16 +8098,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8764,16 +8131,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8800,16 +8164,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8836,16 +8197,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8872,16 +8230,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8908,16 +8263,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8944,16 +8296,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8980,16 +8329,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9016,16 +8362,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9052,16 +8395,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9088,16 +8428,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9124,16 +8461,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9160,16 +8494,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9196,16 +8527,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9232,16 +8560,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9268,16 +8593,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9304,16 +8626,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9340,16 +8659,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9376,16 +8692,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9412,16 +8725,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9448,16 +8758,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9484,16 +8791,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9520,16 +8824,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9556,16 +8857,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9592,16 +8890,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9628,16 +8923,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9664,16 +8956,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9700,16 +8989,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9736,16 +9022,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9772,16 +9055,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9808,16 +9088,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9844,16 +9121,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9880,16 +9154,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9916,16 +9187,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9952,16 +9220,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9988,16 +9253,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10024,16 +9286,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10060,16 +9319,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10096,16 +9352,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10130,18 +9383,19 @@
         <v>775819.5855314013</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="n">
-        <v>0</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
+        <v>204</v>
+      </c>
+      <c r="J258" t="n">
+        <v>204</v>
+      </c>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10166,18 +9420,23 @@
         <v>775819.5855314013</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="n">
-        <v>0</v>
-      </c>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+        <v>205</v>
+      </c>
+      <c r="J259" t="n">
+        <v>204</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10204,16 +9463,19 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>204</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10240,16 +9502,19 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>204</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10276,16 +9541,19 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>204</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10312,16 +9580,19 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>204</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10348,16 +9619,19 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>204</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10384,16 +9658,19 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>204</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10420,16 +9697,19 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>204</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10456,16 +9736,19 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>204</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10492,16 +9775,19 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>204</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10528,16 +9814,19 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>204</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10564,16 +9853,19 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>204</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10600,16 +9892,19 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>204</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10636,16 +9931,19 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>204</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10672,16 +9970,19 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>204</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10708,16 +10009,19 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>204</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10744,16 +10048,19 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>204</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10778,18 +10085,23 @@
         <v>1228913.930731402</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="n">
-        <v>0</v>
-      </c>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+        <v>205</v>
+      </c>
+      <c r="J276" t="n">
+        <v>204</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10814,18 +10126,23 @@
         <v>1228914.930731402</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="n">
-        <v>0</v>
-      </c>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+        <v>203</v>
+      </c>
+      <c r="J277" t="n">
+        <v>204</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10852,16 +10169,19 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>204</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10888,16 +10208,19 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>204</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10922,22 +10245,23 @@
         <v>1222078.899331402</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I280" t="n">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="J280" t="n">
-        <v>202</v>
-      </c>
-      <c r="K280" t="n">
-        <v>202</v>
-      </c>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+        <v>204</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10962,24 +10286,23 @@
         <v>1222078.899331402</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="n">
-        <v>0</v>
-      </c>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>202</v>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+        <v>204</v>
+      </c>
+      <c r="J281" t="n">
+        <v>204</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11004,24 +10327,23 @@
         <v>1222078.899331402</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="n">
-        <v>0</v>
-      </c>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>202</v>
-      </c>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+        <v>204</v>
+      </c>
+      <c r="J282" t="n">
+        <v>204</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11046,18 +10368,23 @@
         <v>1222079.899331402</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="n">
-        <v>0</v>
-      </c>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+        <v>204</v>
+      </c>
+      <c r="J283" t="n">
+        <v>204</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11082,18 +10409,23 @@
         <v>1217799.397231402</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="n">
-        <v>0</v>
-      </c>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+        <v>207</v>
+      </c>
+      <c r="J284" t="n">
+        <v>204</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11118,18 +10450,23 @@
         <v>1217838.203931402</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="n">
-        <v>0</v>
-      </c>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+        <v>204</v>
+      </c>
+      <c r="J285" t="n">
+        <v>204</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11156,16 +10493,19 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>204</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11192,16 +10532,19 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>204</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11226,18 +10569,23 @@
         <v>1217647.998431402</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="n">
-        <v>0</v>
-      </c>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+        <v>205</v>
+      </c>
+      <c r="J288" t="n">
+        <v>204</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11262,18 +10610,23 @@
         <v>1137423.279831402</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="n">
-        <v>0</v>
-      </c>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+        <v>205</v>
+      </c>
+      <c r="J289" t="n">
+        <v>204</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11298,18 +10651,23 @@
         <v>1137424.279831402</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="n">
-        <v>0</v>
-      </c>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+        <v>201</v>
+      </c>
+      <c r="J290" t="n">
+        <v>204</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11334,18 +10692,23 @@
         <v>1137108.236231402</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="n">
-        <v>0</v>
-      </c>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+        <v>206</v>
+      </c>
+      <c r="J291" t="n">
+        <v>204</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11370,18 +10733,23 @@
         <v>1137108.236231402</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="n">
-        <v>0</v>
-      </c>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+        <v>205</v>
+      </c>
+      <c r="J292" t="n">
+        <v>204</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11406,18 +10774,23 @@
         <v>1137108.236231402</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="n">
-        <v>0</v>
-      </c>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+        <v>205</v>
+      </c>
+      <c r="J293" t="n">
+        <v>204</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11442,18 +10815,23 @@
         <v>1137667.226231402</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="n">
-        <v>0</v>
-      </c>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+        <v>205</v>
+      </c>
+      <c r="J294" t="n">
+        <v>204</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11478,18 +10856,23 @@
         <v>1137668.226231402</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="n">
-        <v>0</v>
-      </c>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+        <v>206</v>
+      </c>
+      <c r="J295" t="n">
+        <v>204</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11514,18 +10897,23 @@
         <v>1142589.170231402</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="n">
-        <v>0</v>
-      </c>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+        <v>207</v>
+      </c>
+      <c r="J296" t="n">
+        <v>204</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11550,18 +10938,23 @@
         <v>1142589.170231402</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="n">
-        <v>0</v>
-      </c>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+        <v>208</v>
+      </c>
+      <c r="J297" t="n">
+        <v>204</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11588,16 +10981,19 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>204</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11624,16 +11020,19 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>204</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11660,16 +11059,19 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>204</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11696,16 +11098,19 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>204</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11732,16 +11137,19 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>204</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11768,16 +11176,19 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>204</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11804,16 +11215,19 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>204</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11840,16 +11254,19 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>204</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11876,16 +11293,19 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>204</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11912,16 +11332,19 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>204</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11948,16 +11371,19 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>204</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11984,16 +11410,19 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>204</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -12020,16 +11449,19 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>204</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -12056,16 +11488,19 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>204</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -12092,16 +11527,19 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>204</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -12128,16 +11566,19 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>204</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12164,16 +11605,19 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>204</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12200,16 +11644,19 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>204</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12236,16 +11683,19 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>204</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12272,16 +11722,19 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>204</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12308,16 +11761,19 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>204</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12344,16 +11800,19 @@
       <c r="H319" t="n">
         <v>0</v>
       </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>204</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12380,16 +11839,19 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>204</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12416,16 +11878,19 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>204</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12452,18 +11917,21 @@
       <c r="H322" t="n">
         <v>0</v>
       </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>204</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-11 BackTest STEEM.xlsx
+++ b/BackTest/2019-10-11 BackTest STEEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,14 +517,10 @@
         <v>648248.3979636104</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>210</v>
-      </c>
-      <c r="J4" t="n">
-        <v>210</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
@@ -554,19 +550,11 @@
         <v>648249.5179636104</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>209</v>
-      </c>
-      <c r="J5" t="n">
-        <v>210</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -595,19 +583,11 @@
         <v>648249.5179636104</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>211</v>
-      </c>
-      <c r="J6" t="n">
-        <v>210</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -669,14 +649,10 @@
         <v>648249.5179636104</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>211</v>
-      </c>
-      <c r="J8" t="n">
-        <v>211</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
@@ -706,19 +682,11 @@
         <v>643246.8771636103</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>211</v>
-      </c>
-      <c r="J9" t="n">
-        <v>211</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -747,19 +715,11 @@
         <v>650915.4486636103</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>210</v>
-      </c>
-      <c r="J10" t="n">
-        <v>211</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -791,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>211</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -830,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>211</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -869,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>211</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -908,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>211</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -947,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>211</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -986,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>211</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1025,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>211</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1064,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>211</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1103,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>211</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1142,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>211</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1181,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>211</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1220,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>211</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1259,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>211</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1298,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>211</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1337,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>211</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1376,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>211</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1415,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>211</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1454,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>211</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1493,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>211</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1532,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>211</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1571,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>211</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1610,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>211</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1649,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>211</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1688,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>211</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1727,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>211</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1766,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>211</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1805,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>211</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1844,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>211</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1883,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>211</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1922,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>211</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1961,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>211</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2000,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>211</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2039,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>211</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2078,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>211</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2117,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>211</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2156,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>211</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2195,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>211</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2234,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>211</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2273,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>211</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2312,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>211</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2351,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>211</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2390,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>211</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2429,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>211</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2468,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>211</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2507,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>211</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2546,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>211</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2585,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>211</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2624,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>211</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2663,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>211</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2702,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>211</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2741,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>211</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2780,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>211</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2819,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>211</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2858,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>211</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2897,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>211</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2936,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>211</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2975,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>211</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3014,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>211</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3053,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>211</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3092,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>211</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3131,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>211</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3170,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>211</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3209,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>211</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3248,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>211</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3287,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>211</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3326,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>211</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3365,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>211</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3404,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>211</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3443,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>211</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3482,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>211</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3521,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>211</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3560,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>211</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3599,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>211</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3635,19 +3157,13 @@
         <v>690452.7454847306</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>211</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
-        <v>1.037654028436019</v>
+        <v>1</v>
       </c>
       <c r="M84" t="inlineStr"/>
     </row>
@@ -3674,7 +3190,7 @@
         <v>690452.7454847306</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3740,7 +3256,7 @@
         <v>696191.8017847306</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3773,7 +3289,7 @@
         <v>696191.8017847306</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3806,7 +3322,7 @@
         <v>696191.8017847306</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3839,7 +3355,7 @@
         <v>713194.7993847306</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3872,7 +3388,7 @@
         <v>704845.3492847306</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3905,7 +3421,7 @@
         <v>704845.3492847306</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3938,7 +3454,7 @@
         <v>704845.3492847306</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3971,7 +3487,7 @@
         <v>702381.8696847307</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -4037,7 +3553,7 @@
         <v>706401.2318847306</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4499,7 +4015,7 @@
         <v>749622.3374957407</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4532,7 +4048,7 @@
         <v>767791.0563957407</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4565,7 +4081,7 @@
         <v>811784.1458429707</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4598,7 +4114,7 @@
         <v>811784.1458429707</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4631,7 +4147,7 @@
         <v>780118.1762429707</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4664,7 +4180,7 @@
         <v>760575.8949429707</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4697,7 +4213,7 @@
         <v>742131.7584429707</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4928,7 +4444,7 @@
         <v>762574.0114429706</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4994,7 +4510,7 @@
         <v>782156.6247014806</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5027,7 +4543,7 @@
         <v>782156.6247014806</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5060,7 +4576,7 @@
         <v>774600.8767014806</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5093,7 +4609,7 @@
         <v>774656.3357014806</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5126,7 +4642,7 @@
         <v>764656.3357014806</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5159,7 +4675,7 @@
         <v>764658.3357014806</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5192,7 +4708,7 @@
         <v>764658.3357014806</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5225,7 +4741,7 @@
         <v>781515.5710014806</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5258,7 +4774,7 @@
         <v>765734.3797014806</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5291,7 +4807,7 @@
         <v>765734.3797014806</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5324,7 +4840,7 @@
         <v>760103.7638014806</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5357,7 +4873,7 @@
         <v>760103.7638014806</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5390,7 +4906,7 @@
         <v>742085.5124126007</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5423,7 +4939,7 @@
         <v>720226.4385126007</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5456,7 +4972,7 @@
         <v>720286.6372126007</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5489,7 +5005,7 @@
         <v>718316.4065126007</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5522,7 +5038,7 @@
         <v>718322.4065126007</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5555,7 +5071,7 @@
         <v>714190.3572126008</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5588,7 +5104,7 @@
         <v>714196.0335126008</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5621,7 +5137,7 @@
         <v>714196.0335126008</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5654,7 +5170,7 @@
         <v>714197.0335126008</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5687,7 +5203,7 @@
         <v>709668.1152126008</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5720,7 +5236,7 @@
         <v>705492.8809126008</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5753,7 +5269,7 @@
         <v>685630.9753126008</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5786,7 +5302,7 @@
         <v>685630.9753126008</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5819,7 +5335,7 @@
         <v>671897.4521126008</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5852,7 +5368,7 @@
         <v>658536.6311126008</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5885,7 +5401,7 @@
         <v>660799.7478126008</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5918,7 +5434,7 @@
         <v>660799.7478126008</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5951,7 +5467,7 @@
         <v>647024.3191126008</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5984,7 +5500,7 @@
         <v>692805.9149126008</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6017,7 +5533,7 @@
         <v>683855.3144126008</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6050,7 +5566,7 @@
         <v>693844.0564126008</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6083,7 +5599,7 @@
         <v>685732.1692126008</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6116,7 +5632,7 @@
         <v>668427.1630126009</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -9317,10 +8833,14 @@
         <v>612066.0185314014</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>205</v>
+      </c>
+      <c r="J256" t="n">
+        <v>205</v>
+      </c>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
@@ -9353,8 +8873,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>205</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9383,15 +8909,19 @@
         <v>775819.5855314013</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I258" t="n">
         <v>204</v>
       </c>
       <c r="J258" t="n">
-        <v>204</v>
-      </c>
-      <c r="K258" t="inlineStr"/>
+        <v>205</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9420,13 +8950,13 @@
         <v>775819.5855314013</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I259" t="n">
         <v>205</v>
       </c>
       <c r="J259" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9465,7 +8995,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9504,7 +9034,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9543,7 +9073,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -9582,7 +9112,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -9621,7 +9151,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -9660,7 +9190,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -9699,7 +9229,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -9734,11 +9264,13 @@
         <v>1386089.342731401</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>206</v>
+      </c>
       <c r="J267" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -9773,11 +9305,13 @@
         <v>1386089.342731401</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>206</v>
+      </c>
       <c r="J268" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -9812,11 +9346,13 @@
         <v>1386089.342731401</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>206</v>
+      </c>
       <c r="J269" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -9855,7 +9391,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -9890,11 +9426,13 @@
         <v>1386089.342731401</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>206</v>
+      </c>
       <c r="J271" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -9929,11 +9467,13 @@
         <v>1386089.342731401</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>206</v>
+      </c>
       <c r="J272" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -9972,7 +9512,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -10007,11 +9547,13 @@
         <v>1229802.952431401</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>205</v>
+      </c>
       <c r="J274" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -10046,11 +9588,13 @@
         <v>1229911.430731402</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>204</v>
+      </c>
       <c r="J275" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -10085,13 +9629,11 @@
         <v>1228913.930731402</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
-      </c>
-      <c r="I276" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -10126,13 +9668,13 @@
         <v>1228914.930731402</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I277" t="n">
         <v>203</v>
       </c>
       <c r="J277" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -10167,11 +9709,13 @@
         <v>1224912.430731402</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>205</v>
+      </c>
       <c r="J278" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -10206,11 +9750,13 @@
         <v>1222028.899331402</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>203</v>
+      </c>
       <c r="J279" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -10245,13 +9791,13 @@
         <v>1222078.899331402</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280" t="n">
         <v>202</v>
       </c>
       <c r="J280" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -10286,13 +9832,13 @@
         <v>1222078.899331402</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>204</v>
       </c>
       <c r="J281" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10327,13 +9873,13 @@
         <v>1222078.899331402</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>204</v>
       </c>
       <c r="J282" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10368,13 +9914,13 @@
         <v>1222079.899331402</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283" t="n">
         <v>204</v>
       </c>
       <c r="J283" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10409,13 +9955,13 @@
         <v>1217799.397231402</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I284" t="n">
         <v>207</v>
       </c>
       <c r="J284" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10450,13 +9996,13 @@
         <v>1217838.203931402</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I285" t="n">
         <v>204</v>
       </c>
       <c r="J285" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10491,11 +10037,13 @@
         <v>1217647.998431402</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>207</v>
+      </c>
       <c r="J286" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10530,11 +10078,13 @@
         <v>1217647.998431402</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>205</v>
+      </c>
       <c r="J287" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10569,13 +10119,13 @@
         <v>1217647.998431402</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288" t="n">
         <v>205</v>
       </c>
       <c r="J288" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10610,13 +10160,13 @@
         <v>1137423.279831402</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I289" t="n">
         <v>205</v>
       </c>
       <c r="J289" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10651,13 +10201,13 @@
         <v>1137424.279831402</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I290" t="n">
         <v>201</v>
       </c>
       <c r="J290" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10692,13 +10242,13 @@
         <v>1137108.236231402</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I291" t="n">
         <v>206</v>
       </c>
       <c r="J291" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10733,13 +10283,13 @@
         <v>1137108.236231402</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I292" t="n">
         <v>205</v>
       </c>
       <c r="J292" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10774,13 +10324,13 @@
         <v>1137108.236231402</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I293" t="n">
         <v>205</v>
       </c>
       <c r="J293" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10815,13 +10365,13 @@
         <v>1137667.226231402</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I294" t="n">
         <v>205</v>
       </c>
       <c r="J294" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10856,13 +10406,13 @@
         <v>1137668.226231402</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I295" t="n">
         <v>206</v>
       </c>
       <c r="J295" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10897,13 +10447,13 @@
         <v>1142589.170231402</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I296" t="n">
         <v>207</v>
       </c>
       <c r="J296" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10938,13 +10488,13 @@
         <v>1142589.170231402</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I297" t="n">
         <v>208</v>
       </c>
       <c r="J297" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10979,11 +10529,13 @@
         <v>1143141.377731402</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>208</v>
+      </c>
       <c r="J298" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -11022,7 +10574,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -11061,7 +10613,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -11100,7 +10652,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -11139,7 +10691,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -11178,7 +10730,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -11217,7 +10769,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -11256,7 +10808,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -11295,7 +10847,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -11334,7 +10886,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -11373,7 +10925,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -11412,7 +10964,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -11451,7 +11003,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -11490,7 +11042,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -11529,7 +11081,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -11568,7 +11120,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11607,7 +11159,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11646,7 +11198,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11685,7 +11237,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11724,7 +11276,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11763,7 +11315,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11802,7 +11354,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11841,7 +11393,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11880,7 +11432,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11919,7 +11471,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11932,6 +11484,6 @@
       <c r="M322" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-11 BackTest STEEM.xlsx
+++ b/BackTest/2019-10-11 BackTest STEEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3157,7 +3157,7 @@
         <v>690452.7454847306</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>696191.8017847306</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>696191.8017847306</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>696191.8017847306</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>696191.8017847306</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>713194.7993847306</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>704845.3492847306</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>704845.3492847306</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>704845.3492847306</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>702381.8696847307</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>701208.4067847306</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>706401.2318847306</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>706401.2318847306</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>690651.4804847307</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>687114.2897847306</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>687114.2897847306</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>689785.8387847306</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>676696.1193847307</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>677744.1193847307</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>677744.1193847307</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>676700.3147847307</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>694651.6174847307</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>698262.7175847307</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>718247.5993847307</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>749622.3374957407</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>749622.3374957407</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>782156.6247014806</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>782156.6247014806</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>774600.8767014806</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>774656.3357014806</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>764656.3357014806</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>764658.3357014806</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>764658.3357014806</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>781515.5710014806</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>765734.3797014806</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>765734.3797014806</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>760103.7638014806</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>760103.7638014806</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>742085.5124126007</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>720226.4385126007</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>720286.6372126007</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>718316.4065126007</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>718322.4065126007</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>714190.3572126008</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>714196.0335126008</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>714196.0335126008</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>714197.0335126008</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>709668.1152126008</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>705492.8809126008</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>685630.9753126008</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>685630.9753126008</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>671897.4521126008</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>658536.6311126008</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>660799.7478126008</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>660799.7478126008</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>647024.3191126008</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>692805.9149126008</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>683855.3144126008</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>685732.1692126008</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6292,11 +6292,17 @@
         <v>683415.0581705911</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>210</v>
+      </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6325,11 +6331,17 @@
         <v>694917.7452705911</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>209</v>
+      </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6358,11 +6370,17 @@
         <v>694917.7452705911</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>212</v>
+      </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6391,11 +6409,17 @@
         <v>694917.7452705911</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>212</v>
+      </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6424,11 +6448,17 @@
         <v>694912.7577705911</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>212</v>
+      </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6457,11 +6487,17 @@
         <v>694912.7577705911</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>208</v>
+      </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6490,11 +6526,17 @@
         <v>695019.1703705911</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>208</v>
+      </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6523,11 +6565,17 @@
         <v>695019.1703705911</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>212</v>
+      </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6560,7 +6608,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6593,7 +6645,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6626,7 +6682,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6659,7 +6719,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6692,7 +6756,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6725,7 +6793,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6758,7 +6830,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6791,7 +6867,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6824,7 +6904,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6857,7 +6941,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6890,7 +6978,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6923,7 +7015,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6956,7 +7052,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6989,7 +7089,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7022,7 +7126,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7055,7 +7163,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7088,7 +7200,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7121,7 +7237,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7154,7 +7274,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7187,7 +7311,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7220,7 +7348,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7253,7 +7385,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7286,7 +7422,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7319,7 +7459,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7352,7 +7496,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7385,7 +7533,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7418,7 +7570,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7451,7 +7607,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7484,7 +7644,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7517,7 +7681,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7550,7 +7718,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7583,7 +7755,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7616,7 +7792,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7649,7 +7829,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7682,7 +7866,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7715,7 +7903,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7748,7 +7940,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7781,7 +7977,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7814,7 +8014,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7847,7 +8051,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7880,7 +8088,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7913,7 +8125,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7946,7 +8162,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7979,7 +8199,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8012,7 +8236,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8045,7 +8273,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8078,7 +8310,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8111,7 +8347,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8144,7 +8384,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8177,7 +8421,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8210,7 +8458,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8243,7 +8495,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8276,7 +8532,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8309,7 +8569,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8342,7 +8606,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8375,7 +8643,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8408,7 +8680,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8441,7 +8717,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8474,7 +8754,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8507,7 +8791,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8540,7 +8828,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8573,7 +8865,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8606,7 +8902,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8639,7 +8939,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8672,7 +8976,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8705,7 +9013,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8738,7 +9050,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8771,7 +9087,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8804,7 +9124,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8838,10 +9162,12 @@
       <c r="I256" t="n">
         <v>205</v>
       </c>
-      <c r="J256" t="n">
-        <v>205</v>
-      </c>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8870,15 +9196,15 @@
         <v>609199.9328314014</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
         <v>205</v>
       </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L257" t="n">
@@ -8914,12 +9240,10 @@
       <c r="I258" t="n">
         <v>204</v>
       </c>
-      <c r="J258" t="n">
-        <v>205</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L258" t="n">
@@ -8955,12 +9279,10 @@
       <c r="I259" t="n">
         <v>205</v>
       </c>
-      <c r="J259" t="n">
-        <v>205</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L259" t="n">
@@ -8994,9 +9316,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>205</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9033,9 +9353,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>205</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9072,9 +9390,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>205</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9111,9 +9427,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>205</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9150,9 +9464,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>205</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9189,9 +9501,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>205</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9228,9 +9538,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>205</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9264,14 +9572,10 @@
         <v>1386089.342731401</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>206</v>
-      </c>
-      <c r="J267" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9305,14 +9609,10 @@
         <v>1386089.342731401</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>206</v>
-      </c>
-      <c r="J268" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9346,14 +9646,10 @@
         <v>1386089.342731401</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>206</v>
-      </c>
-      <c r="J269" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9390,9 +9686,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>205</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9426,14 +9720,10 @@
         <v>1386089.342731401</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>206</v>
-      </c>
-      <c r="J271" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9467,14 +9757,10 @@
         <v>1386089.342731401</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>206</v>
-      </c>
-      <c r="J272" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9511,9 +9797,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>205</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9547,14 +9831,10 @@
         <v>1229802.952431401</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>205</v>
-      </c>
-      <c r="J274" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9588,14 +9868,10 @@
         <v>1229911.430731402</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>204</v>
-      </c>
-      <c r="J275" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9632,9 +9908,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>205</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9668,14 +9942,10 @@
         <v>1228914.930731402</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>203</v>
-      </c>
-      <c r="J277" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9709,14 +9979,10 @@
         <v>1224912.430731402</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>205</v>
-      </c>
-      <c r="J278" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9750,14 +10016,10 @@
         <v>1222028.899331402</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>203</v>
-      </c>
-      <c r="J279" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9791,14 +10053,10 @@
         <v>1222078.899331402</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>202</v>
-      </c>
-      <c r="J280" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9832,14 +10090,10 @@
         <v>1222078.899331402</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>204</v>
-      </c>
-      <c r="J281" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9873,14 +10127,10 @@
         <v>1222078.899331402</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>204</v>
-      </c>
-      <c r="J282" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9914,14 +10164,10 @@
         <v>1222079.899331402</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>204</v>
-      </c>
-      <c r="J283" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9955,14 +10201,10 @@
         <v>1217799.397231402</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>207</v>
-      </c>
-      <c r="J284" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9996,14 +10238,10 @@
         <v>1217838.203931402</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>204</v>
-      </c>
-      <c r="J285" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10037,14 +10275,10 @@
         <v>1217647.998431402</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>207</v>
-      </c>
-      <c r="J286" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10078,14 +10312,10 @@
         <v>1217647.998431402</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>205</v>
-      </c>
-      <c r="J287" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10119,14 +10349,10 @@
         <v>1217647.998431402</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>205</v>
-      </c>
-      <c r="J288" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10160,14 +10386,10 @@
         <v>1137423.279831402</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>205</v>
-      </c>
-      <c r="J289" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10201,14 +10423,10 @@
         <v>1137424.279831402</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>201</v>
-      </c>
-      <c r="J290" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10242,14 +10460,10 @@
         <v>1137108.236231402</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>206</v>
-      </c>
-      <c r="J291" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10283,14 +10497,10 @@
         <v>1137108.236231402</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>205</v>
-      </c>
-      <c r="J292" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10324,14 +10534,10 @@
         <v>1137108.236231402</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>205</v>
-      </c>
-      <c r="J293" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10365,14 +10571,10 @@
         <v>1137667.226231402</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>205</v>
-      </c>
-      <c r="J294" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10406,14 +10608,10 @@
         <v>1137668.226231402</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>206</v>
-      </c>
-      <c r="J295" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10447,14 +10645,10 @@
         <v>1142589.170231402</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>207</v>
-      </c>
-      <c r="J296" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10488,14 +10682,10 @@
         <v>1142589.170231402</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>208</v>
-      </c>
-      <c r="J297" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10529,14 +10719,10 @@
         <v>1143141.377731402</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>208</v>
-      </c>
-      <c r="J298" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10573,9 +10759,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>205</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10612,9 +10796,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>205</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10651,9 +10833,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>205</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10690,9 +10870,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>205</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10729,9 +10907,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>205</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10768,9 +10944,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>205</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10807,9 +10981,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>205</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10846,9 +11018,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>205</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10885,9 +11055,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>205</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10924,9 +11092,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>205</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10963,9 +11129,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>205</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11002,9 +11166,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>205</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11041,9 +11203,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>205</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11080,9 +11240,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>205</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11119,9 +11277,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>205</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11158,9 +11314,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>205</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11197,9 +11351,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>205</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11236,9 +11388,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>205</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11275,9 +11425,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>205</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11314,9 +11462,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>205</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11353,9 +11499,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>205</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11392,9 +11536,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>205</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11431,9 +11573,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>205</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11470,9 +11610,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>205</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11484,6 +11622,6 @@
       <c r="M322" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-11 BackTest STEEM.xlsx
+++ b/BackTest/2019-10-11 BackTest STEEM.xlsx
@@ -451,7 +451,7 @@
         <v>649120.1234636103</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>649118.1234636103</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>211</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>648248.3979636104</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>210</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>648249.5179636104</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>209</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>648249.5179636104</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>211</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -620,7 +644,11 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +677,17 @@
         <v>648249.5179636104</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>211</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -686,7 +720,11 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -719,7 +757,11 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -752,7 +794,11 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -785,7 +831,11 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -818,7 +868,11 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -851,7 +905,11 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,7 +942,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +979,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,7 +1016,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1053,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1090,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1127,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1164,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1201,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1238,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1275,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1312,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1349,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1386,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1423,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1460,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1497,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1534,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1571,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1608,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1645,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1682,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1719,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1756,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1793,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1830,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1867,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1904,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1941,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +1978,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,7 +2015,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,7 +2052,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +2089,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +2126,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2163,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2200,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2237,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2274,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2311,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2348,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2385,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2422,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2459,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2496,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2533,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2570,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2607,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2644,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2681,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2718,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2755,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2792,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2829,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2866,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2903,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2940,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2699,7 +2977,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2732,7 +3014,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +3051,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2798,7 +3088,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +3125,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2864,7 +3162,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,7 +3199,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +3236,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3273,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3310,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3347,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3062,7 +3384,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3095,7 +3421,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3128,7 +3458,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3491,15 @@
         <v>690452.7454847306</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3194,7 +3532,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3565,15 @@
         <v>696191.8017847306</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3602,15 @@
         <v>696191.8017847306</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3639,15 @@
         <v>696191.8017847306</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3676,15 @@
         <v>696191.8017847306</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3713,15 @@
         <v>713194.7993847306</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3750,15 @@
         <v>704845.3492847306</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3787,15 @@
         <v>704845.3492847306</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3824,15 @@
         <v>704845.3492847306</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3861,15 @@
         <v>702381.8696847307</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +3898,15 @@
         <v>701208.4067847306</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3935,15 @@
         <v>706401.2318847306</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3972,15 @@
         <v>706401.2318847306</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +4009,15 @@
         <v>690651.4804847307</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +4046,15 @@
         <v>687114.2897847306</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +4083,15 @@
         <v>687114.2897847306</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +4120,15 @@
         <v>689785.8387847306</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +4157,15 @@
         <v>676696.1193847307</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +4194,15 @@
         <v>677744.1193847307</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +4231,15 @@
         <v>677744.1193847307</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +4268,15 @@
         <v>676700.3147847307</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +4305,15 @@
         <v>694651.6174847307</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +4342,15 @@
         <v>698262.7175847307</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +4379,15 @@
         <v>718247.5993847307</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +4416,15 @@
         <v>749622.3374957407</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +4453,15 @@
         <v>749622.3374957407</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4052,7 +4494,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4085,7 +4531,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4114,14 +4564,16 @@
         <v>811784.1458429707</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
@@ -4147,7 +4599,7 @@
         <v>780118.1762429707</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4632,7 @@
         <v>760575.8949429707</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4665,7 @@
         <v>742131.7584429707</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4698,7 @@
         <v>749030.6692429706</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4543,7 +4995,7 @@
         <v>782156.6247014806</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +5028,7 @@
         <v>774600.8767014806</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +5061,7 @@
         <v>774656.3357014806</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +5094,7 @@
         <v>764656.3357014806</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +5127,7 @@
         <v>764658.3357014806</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +5160,7 @@
         <v>764658.3357014806</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +5193,7 @@
         <v>781515.5710014806</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +5226,7 @@
         <v>765734.3797014806</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +5259,7 @@
         <v>765734.3797014806</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +5292,7 @@
         <v>760103.7638014806</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +5325,7 @@
         <v>760103.7638014806</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +5358,7 @@
         <v>742085.5124126007</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +5391,7 @@
         <v>720226.4385126007</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -6292,17 +6744,11 @@
         <v>683415.0581705911</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>210</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6331,17 +6777,11 @@
         <v>694917.7452705911</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>209</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6370,17 +6810,11 @@
         <v>694917.7452705911</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>212</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6409,17 +6843,11 @@
         <v>694917.7452705911</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>212</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6448,17 +6876,11 @@
         <v>694912.7577705911</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>212</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6487,17 +6909,11 @@
         <v>694912.7577705911</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>208</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6526,17 +6942,11 @@
         <v>695019.1703705911</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>208</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6565,17 +6975,11 @@
         <v>695019.1703705911</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>212</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6608,11 +7012,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6645,11 +7045,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6682,11 +7078,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6719,11 +7111,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6756,11 +7144,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6793,11 +7177,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6830,11 +7210,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6867,11 +7243,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6904,11 +7276,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6941,11 +7309,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6978,11 +7342,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7015,11 +7375,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7052,11 +7408,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7089,11 +7441,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7126,11 +7474,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7163,11 +7507,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7200,11 +7540,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7237,11 +7573,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7274,11 +7606,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7311,11 +7639,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7348,11 +7672,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7385,11 +7705,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7422,11 +7738,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7459,11 +7771,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7496,11 +7804,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7533,11 +7837,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7570,11 +7870,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7607,11 +7903,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7644,11 +7936,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7681,11 +7969,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7718,11 +8002,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7755,11 +8035,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7792,11 +8068,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7829,11 +8101,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7866,11 +8134,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7903,11 +8167,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7940,11 +8200,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7977,11 +8233,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8014,11 +8266,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8051,11 +8299,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8088,11 +8332,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8125,11 +8365,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8162,11 +8398,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8199,11 +8431,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8236,11 +8464,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8273,11 +8497,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8310,11 +8530,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8347,11 +8563,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8384,11 +8596,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8421,11 +8629,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8458,11 +8662,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8495,11 +8695,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8532,11 +8728,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8569,11 +8761,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8606,11 +8794,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8643,11 +8827,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8680,11 +8860,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8717,11 +8893,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8754,11 +8926,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8791,11 +8959,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8828,11 +8992,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8865,11 +9025,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8902,11 +9058,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8939,11 +9091,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8976,11 +9124,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9013,11 +9157,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9050,11 +9190,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9087,11 +9223,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9124,11 +9256,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9157,17 +9285,11 @@
         <v>612066.0185314014</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9196,17 +9318,11 @@
         <v>609199.9328314014</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9235,17 +9351,11 @@
         <v>775819.5855314013</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>204</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9274,17 +9384,11 @@
         <v>775819.5855314013</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9317,11 +9421,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9354,11 +9454,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9391,11 +9487,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9428,11 +9520,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9465,11 +9553,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9502,11 +9586,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9539,11 +9619,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9576,11 +9652,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9613,11 +9685,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9650,11 +9718,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9687,11 +9751,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9724,11 +9784,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9761,11 +9817,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9798,11 +9850,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9835,11 +9883,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9872,11 +9916,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9909,11 +9949,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9946,11 +9982,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9983,11 +10015,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10020,11 +10048,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10057,11 +10081,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10094,11 +10114,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10131,11 +10147,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10168,11 +10180,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10205,11 +10213,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10242,11 +10246,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10279,11 +10279,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10316,11 +10312,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10353,11 +10345,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10390,11 +10378,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10427,11 +10411,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10464,11 +10444,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10501,11 +10477,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10538,11 +10510,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10575,11 +10543,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10612,11 +10576,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10649,11 +10609,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10686,11 +10642,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10723,11 +10675,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10760,11 +10708,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10797,11 +10741,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10834,11 +10774,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10871,11 +10807,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10908,11 +10840,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10945,11 +10873,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10982,11 +10906,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11019,11 +10939,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11056,11 +10972,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11093,11 +11005,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11130,11 +11038,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11167,11 +11071,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11204,11 +11104,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11241,11 +11137,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11278,11 +11170,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11315,11 +11203,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11352,11 +11236,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11389,11 +11269,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11426,11 +11302,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11463,11 +11335,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11500,11 +11368,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11537,11 +11401,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11574,11 +11434,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11611,11 +11467,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
